--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>585200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>531700</v>
+      </c>
+      <c r="F8" s="3">
         <v>538000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>491600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>436200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>441900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>456000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>469600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>479200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>248400</v>
+      </c>
+      <c r="F9" s="3">
         <v>248100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>214000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>168900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>177400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>181200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>173900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>172600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>283300</v>
+      </c>
+      <c r="F10" s="3">
         <v>289900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>277600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>267300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>264500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>274800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>295700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>306600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>133000</v>
+      </c>
+      <c r="F14" s="3">
         <v>76200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>67200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>37300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>53200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>14100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>9100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F15" s="3">
         <v>171900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>165300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>132000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>130800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>132200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>143300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>143300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>473300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>440100</v>
+      </c>
+      <c r="F17" s="3">
         <v>519200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>459700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>335600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>317900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>390000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>356200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>388600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>91600</v>
+      </c>
+      <c r="F18" s="3">
         <v>18800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>31900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>100600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>124000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>66000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>113400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>90600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,153 +1075,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>14700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>11100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>764300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>96400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>48000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>21800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>509100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>289200</v>
+      </c>
+      <c r="F21" s="3">
         <v>192200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>211900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>243700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1019100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>294600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>304700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>255700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>58100</v>
+      </c>
+      <c r="F22" s="3">
         <v>61200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>56900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>49300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>54700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>63500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>73000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>75100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>261500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-40900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-10300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>62400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>833600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>98900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>88400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>37300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-6300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-2900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-4900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-5300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>294500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>46000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-34700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>65900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>836500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>103800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>93000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>42700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-46200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-14000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>61000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>830200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>98900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>89500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>39800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1285,23 +1406,29 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-14700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-11100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-764300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-96400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-48000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-21800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-46200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-14000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>61000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>830200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>98900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>89500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>39800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-46200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-14000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>61000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>830200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>98900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>89500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>39800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,37 +1705,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>783500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>144200</v>
+      </c>
+      <c r="F41" s="3">
         <v>125000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>130500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>120100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>110800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>78900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>91400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>86000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,66 +1771,84 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>59400</v>
+      </c>
+      <c r="F43" s="3">
         <v>57000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>53800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>48600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>48200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>446400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>51500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>271900</v>
+      </c>
+      <c r="E44" s="3">
+        <v>504400</v>
+      </c>
+      <c r="F44" s="3">
         <v>402700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>161000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>10800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>108100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>423100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>692700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>436200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1679,8 +1876,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,95 +1911,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>761500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1119800</v>
+      </c>
+      <c r="F47" s="3">
         <v>750800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1011100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>1006100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>2124500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>2200500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>2206900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2464600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12753700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>11205500</v>
+      </c>
+      <c r="F48" s="3">
         <v>11708100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>11406300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>10792900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10209500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10235700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9962000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10859200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>550300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>331700</v>
+      </c>
+      <c r="F49" s="3">
         <v>303700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>318000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>275600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>305100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>305800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>294100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>395300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>40400</v>
+      </c>
+      <c r="F52" s="3">
         <v>30100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>25500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>26500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>29100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>29900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>30500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>31900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16072700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>14032900</v>
+      </c>
+      <c r="F54" s="3">
         <v>14010200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13713100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12899500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12718600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13084000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13451400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14067600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,83 +2225,97 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>856000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>456200</v>
+      </c>
+      <c r="F57" s="3">
         <v>431500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>371200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>352600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>391600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>410800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>398900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>391900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>2600</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>156800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>156600</v>
+      </c>
+      <c r="F59" s="3">
         <v>156300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>154900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>152800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
@@ -2053,8 +2326,14 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,66 +2361,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6382900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6347500</v>
+      </c>
+      <c r="F61" s="3">
         <v>6599400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6289100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5761200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5564300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6797400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>7401300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7962900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F62" s="3">
         <v>35100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>30100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>10400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8836200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7947800</v>
+      </c>
+      <c r="F66" s="3">
         <v>8077100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7658700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>7062600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6774100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8012800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8307900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8861300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3512100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3601200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7236500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6085100</v>
+      </c>
+      <c r="F76" s="3">
         <v>5933100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6054400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>5836900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5944400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5071200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5143500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5206300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>277500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>43200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-46200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-14000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>61000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>830200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>98900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>89500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>39800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>189300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>190800</v>
+      </c>
+      <c r="F83" s="3">
         <v>171900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>165300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>132000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>130800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>132200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>143300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>143300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>217500</v>
+      </c>
+      <c r="F89" s="3">
         <v>248000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>222000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>158600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>215800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>193200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>243500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>196200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-185500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-151500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-183600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-106300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-110700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-292300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-22100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-151000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-352500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-928700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-160300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1011700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>325800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>481000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>10700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,25 +3445,27 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-188500</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-183500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-182100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-177300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-177300</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-174300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-174100</v>
       </c>
       <c r="I96" s="3">
         <v>-174300</v>
@@ -3007,10 +3474,16 @@
         <v>-174100</v>
       </c>
       <c r="K96" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>761400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="F100" s="3">
         <v>103600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>716100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>8500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-532400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-720500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-171200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3134,53 +3631,65 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>705400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>31100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-13200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>4000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>35800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>588400</v>
+      </c>
+      <c r="E8" s="3">
         <v>585200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>531700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>538000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>491600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>436200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>441900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>456000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>469600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>479200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>315800</v>
+      </c>
+      <c r="E9" s="3">
         <v>376000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>248400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>248100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>214000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>168900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>181200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>173900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>172600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>272600</v>
+      </c>
+      <c r="E10" s="3">
         <v>209200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>283300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>289900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>277600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>267300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>264500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>274800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>295700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>306600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E14" s="3">
         <v>38300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>133000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>76200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>67200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>37300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>53200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>9100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E15" s="3">
         <v>189300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>190800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>171900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>165300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>132000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>130800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>132200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>143300</v>
       </c>
       <c r="L15" s="3">
         <v>143300</v>
       </c>
       <c r="M15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="N15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E17" s="3">
         <v>473300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>440100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>519200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>459700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>335600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>317900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>390000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>356200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>388600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E18" s="3">
         <v>111900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>91600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>18800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>31900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>100600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>124000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>66000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>90600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="3">
         <v>208000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>14700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>764300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>96400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>48000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>21800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E21" s="3">
         <v>509100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>289200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>192200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>211900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>243700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1019100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>294600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>304700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>255700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>57600</v>
+      </c>
+      <c r="E22" s="3">
         <v>58400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>61200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>49300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>63500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>73000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>75100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E23" s="3">
         <v>261500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>40300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-40900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>62400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>833600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>98900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>88400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-33000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-6300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-4900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E26" s="3">
         <v>294500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>46000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>65900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>836500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>103800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>93000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>42700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>277500</v>
+        <v>51100</v>
       </c>
       <c r="E27" s="3">
+        <v>277700</v>
+      </c>
+      <c r="F27" s="3">
         <v>43200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-46200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-14000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>61000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>830200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>98900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>89500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>39800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,11 +1473,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1424,11 +1485,14 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-208000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-14700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-764300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-96400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-48000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-21800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>277500</v>
+        <v>51100</v>
       </c>
       <c r="E33" s="3">
+        <v>277700</v>
+      </c>
+      <c r="F33" s="3">
         <v>43200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-46200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-14000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>61000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>830200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>98900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>89500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>39800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>277500</v>
+        <v>51100</v>
       </c>
       <c r="E35" s="3">
+        <v>277700</v>
+      </c>
+      <c r="F35" s="3">
         <v>43200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-46200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-14000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>61000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>830200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>98900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>89500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>39800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,43 +1793,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E41" s="3">
         <v>783500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>125000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>130500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>120100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>110800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>78900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>91400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>86000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,78 +1867,87 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>73400</v>
+      </c>
+      <c r="E43" s="3">
         <v>85000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>59400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>48600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>446400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>51500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>271900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>504400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>402700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>161000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>10800</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3">
         <v>108100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>423100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>692700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>436200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,113 +2019,125 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>773000</v>
+      </c>
+      <c r="E47" s="3">
         <v>761500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1119800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>750800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1011100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1006100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2124500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2200500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2206900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2464600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12980700</v>
+      </c>
+      <c r="E48" s="3">
         <v>12753700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11205500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11708100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11406300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10792900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10209500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10235700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9962000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10859200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>537600</v>
+      </c>
+      <c r="E49" s="3">
         <v>550300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>331700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>303700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>318000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>275600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>305100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>305800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>294100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>395300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>106600</v>
+        <v>484400</v>
       </c>
       <c r="E52" s="3">
-        <v>40400</v>
+        <v>378400</v>
       </c>
       <c r="F52" s="3">
-        <v>30100</v>
+        <v>544800</v>
       </c>
       <c r="G52" s="3">
-        <v>25500</v>
+        <v>432900</v>
       </c>
       <c r="H52" s="3">
-        <v>26500</v>
+        <v>186500</v>
       </c>
       <c r="I52" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J52" s="3">
         <v>29100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>30500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>31900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16316400</v>
+      </c>
+      <c r="E54" s="3">
         <v>16072700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14032900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14010200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13713100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12899500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12718600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13084000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13451400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14067600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,98 +2357,105 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>847100</v>
+      </c>
+      <c r="E57" s="3">
         <v>856000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>456200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>431500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>371200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>352600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>391600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>410800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>398900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>391900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E58" s="3">
         <v>6200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2600</v>
       </c>
-      <c r="M58" s="3" t="s">
+      <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E59" s="3">
         <v>156800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>156600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>154900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>152800</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,78 +2507,87 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6724600</v>
+      </c>
+      <c r="E61" s="3">
         <v>6382900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6347500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6599400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6289100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5761200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5564300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6797400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7401300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7962900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E62" s="3">
         <v>31700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>36400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>35100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>30100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9217800</v>
+      </c>
+      <c r="E66" s="3">
         <v>8836200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7947800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8077100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7658700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7062600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6774100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8012800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8307900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8861300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3660200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7098700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7236500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6085100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5933100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6054400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5836900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5944400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5071200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5143500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5206300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>277500</v>
+        <v>51100</v>
       </c>
       <c r="E81" s="3">
+        <v>277700</v>
+      </c>
+      <c r="F81" s="3">
         <v>43200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-46200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-14000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>61000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>830200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>98900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>89500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>39800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>178500</v>
+      </c>
+      <c r="E83" s="3">
         <v>189300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>190800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>171900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>165300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>132000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>130800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>132200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>143300</v>
       </c>
       <c r="L83" s="3">
         <v>143300</v>
       </c>
       <c r="M83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="N83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>224800</v>
+      </c>
+      <c r="E89" s="3">
         <v>95000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>217500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>248000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>222000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>158600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>215800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>193200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>243500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>196200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-280900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-185500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-151500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-183600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-106300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-110700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-292300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-22100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-384300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-151000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-352500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-928700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-160300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1011700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>325800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>481000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>10700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-199600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-188500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-183500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-177300</v>
       </c>
       <c r="H96" s="3">
         <v>-177300</v>
       </c>
       <c r="I96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="J96" s="3">
         <v>-174300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-174100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-174300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-174100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,55 +3830,61 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>106200</v>
+      </c>
+      <c r="E100" s="3">
         <v>761400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-181000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>103600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>716100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>8500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-532400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-720500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-171200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -3643,53 +3892,59 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53500</v>
+      </c>
+      <c r="E102" s="3">
         <v>705400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>29600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>35800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>597700</v>
+      </c>
+      <c r="E8" s="3">
         <v>588400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>585200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>531700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>538000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>491600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>436200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>441900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>456000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>469600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>479200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>314300</v>
+      </c>
+      <c r="E9" s="3">
         <v>315800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>376000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>248400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>248100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>214000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>168900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>181200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>173900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>172600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>283400</v>
+      </c>
+      <c r="E10" s="3">
         <v>272600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>209200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>283300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>289900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>277600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>267300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>264500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>274800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>295700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>306600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,84 +947,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E14" s="3">
         <v>49900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>38300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>133000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>76200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>67200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>37300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>53200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>9100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E15" s="3">
         <v>178500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>189300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>190800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>171900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>165300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>132000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>130800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>132200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>143300</v>
       </c>
       <c r="M15" s="3">
         <v>143300</v>
       </c>
       <c r="N15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="O15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>561400</v>
+      </c>
+      <c r="E17" s="3">
         <v>566000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>473300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>440100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>519200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>459700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>335600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>317900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>390000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>356200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>388600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E18" s="3">
         <v>22400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>111900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>91600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>18800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>124000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>66000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>113400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>90600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>100000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>208000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>14700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>764300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>96400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>48000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>21800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>213900</v>
+      </c>
+      <c r="E21" s="3">
         <v>300800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>509100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>289200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>192200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>211900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>243700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1019100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>294600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>304700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>255700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E22" s="3">
         <v>57600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>61200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>49300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>63500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>73000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>75100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E23" s="3">
         <v>64800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>261500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-40900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>62400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>833600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>98900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>88400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-33000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-6300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="E26" s="3">
         <v>72100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>294500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>46000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-34700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>65900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>836500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>103800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>93000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>42700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E27" s="3">
         <v>51100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>277700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>43200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-46200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-14000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>830200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>98900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>89500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>39800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1476,11 +1537,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1488,11 +1549,14 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-208000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-14700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-764300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-96400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-48000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-21800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E33" s="3">
         <v>51100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>277700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>43200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-46200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-14000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>61000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>830200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>98900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>89500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>39800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E35" s="3">
         <v>51100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>277700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>43200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-46200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-14000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>61000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>830200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>98900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>89500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>39800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,46 +1880,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>197100</v>
+      </c>
+      <c r="E41" s="3">
         <v>731000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>783500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>125000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>130500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>120100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>110800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>78900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>91400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>86000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,46 +1960,52 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>63200</v>
+      </c>
+      <c r="E43" s="3">
         <v>73400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>85000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>59400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>53800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>48600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>446400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>51500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1931,23 +2027,26 @@
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K44" s="3">
         <v>108100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>423100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>692700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>436200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,122 +2124,134 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>724100</v>
+      </c>
+      <c r="E47" s="3">
         <v>773000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>761500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1119800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>750800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1011100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1006100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2124500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2200500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2206900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2464600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11225100</v>
+      </c>
+      <c r="E48" s="3">
         <v>12980700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12753700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11205500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11708100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11406300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10792900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10209500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10235700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9962000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10859200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>501600</v>
+      </c>
+      <c r="E49" s="3">
         <v>537600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>550300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>331700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>303700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>318000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>275600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>305100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>294100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>395300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2315600</v>
+      </c>
+      <c r="E52" s="3">
         <v>484400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>378400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>544800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>432900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>186500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>37400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>29100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>30500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>31900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15751800</v>
+      </c>
+      <c r="E54" s="3">
         <v>16316400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16072700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14032900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14010200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13713100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12899500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12718600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13084000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13451400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14067600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,107 +2488,114 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>834500</v>
+      </c>
+      <c r="E57" s="3">
         <v>847100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>856000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>456200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>431500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>371200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>352600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>391600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>410800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>398900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>391900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>4200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2600</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E59" s="3">
         <v>177000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>156800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>154900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>152800</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
@@ -2472,8 +2609,11 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,84 +2650,93 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6378000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6724600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6382900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6347500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6599400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6289100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5761200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5564300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6797400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7401300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7962900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E62" s="3">
         <v>32600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>31700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>36400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>35100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8911800</v>
+      </c>
+      <c r="E66" s="3">
         <v>9217800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8836200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7947800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8077100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7658700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7062600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6774100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8012800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8307900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8861300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3923200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6840100</v>
+      </c>
+      <c r="E76" s="3">
         <v>7098700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7236500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6085100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5933100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6054400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5836900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5944400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5071200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5143500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5206300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E81" s="3">
         <v>51100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>277700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>43200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-46200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-14000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>61000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>830200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>98900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>89500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>39800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>173600</v>
+      </c>
+      <c r="E83" s="3">
         <v>178500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>189300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>190800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>171900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>165300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>132000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>130800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>132200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>143300</v>
       </c>
       <c r="M83" s="3">
         <v>143300</v>
       </c>
       <c r="N83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="O83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>219900</v>
+      </c>
+      <c r="E89" s="3">
         <v>224800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>95000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>217500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>248000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>222000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>158600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>215800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>193200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>243500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>196200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-280900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-185500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-151500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-183600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-106300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-110700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-292300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-22100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-231200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-384300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-151000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-352500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-928700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-160300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1011700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>325800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>481000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>10700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-199500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-199600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-188500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-183500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-177300</v>
       </c>
       <c r="I96" s="3">
         <v>-177300</v>
       </c>
       <c r="J96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-174300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-174100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-174300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-174100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,61 +4076,67 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-525800</v>
+      </c>
+      <c r="E100" s="3">
         <v>106200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>761400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-181000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>103600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>716100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>8500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-532400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-720500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-171200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -3895,56 +4144,62 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-537100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>705400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>35800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1644900</v>
+      </c>
+      <c r="E8" s="3">
         <v>597700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>588400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>585200</v>
       </c>
-      <c r="G8" s="3">
-        <v>531700</v>
-      </c>
       <c r="H8" s="3">
+        <v>1240300</v>
+      </c>
+      <c r="I8" s="3">
         <v>538000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>491600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>436200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>441900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>456000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>469600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>479200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>782500</v>
+      </c>
+      <c r="E9" s="3">
         <v>314300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>315800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>376000</v>
       </c>
-      <c r="G9" s="3">
-        <v>248400</v>
-      </c>
       <c r="H9" s="3">
+        <v>405200</v>
+      </c>
+      <c r="I9" s="3">
         <v>248100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>214000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>168900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>177400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>181200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>173900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>172600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>862400</v>
+      </c>
+      <c r="E10" s="3">
         <v>283400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>272600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>209200</v>
       </c>
-      <c r="G10" s="3">
-        <v>283300</v>
-      </c>
       <c r="H10" s="3">
+        <v>835100</v>
+      </c>
+      <c r="I10" s="3">
         <v>289900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>277600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>267300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>264500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>274800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>295700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>306600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E14" s="3">
         <v>52500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>38300</v>
       </c>
-      <c r="G14" s="3">
-        <v>133000</v>
-      </c>
       <c r="H14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="I14" s="3">
         <v>76200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>67200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>37300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>53200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>553900</v>
+      </c>
+      <c r="E15" s="3">
         <v>173600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>178500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>189300</v>
       </c>
-      <c r="G15" s="3">
-        <v>190800</v>
-      </c>
       <c r="H15" s="3">
+        <v>435200</v>
+      </c>
+      <c r="I15" s="3">
         <v>171900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>165300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>132000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>130800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>132200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>143300</v>
       </c>
       <c r="N15" s="3">
         <v>143300</v>
       </c>
       <c r="O15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="P15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1373900</v>
+      </c>
+      <c r="E17" s="3">
         <v>561400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>566000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>473300</v>
       </c>
-      <c r="G17" s="3">
-        <v>440100</v>
-      </c>
       <c r="H17" s="3">
+        <v>840600</v>
+      </c>
+      <c r="I17" s="3">
         <v>519200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>459700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>335600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>317900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>390000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>356200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>388600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E18" s="3">
         <v>36300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>111900</v>
       </c>
-      <c r="G18" s="3">
-        <v>91600</v>
-      </c>
       <c r="H18" s="3">
+        <v>399700</v>
+      </c>
+      <c r="I18" s="3">
         <v>18800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>66000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>113400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>208000</v>
       </c>
-      <c r="G20" s="3">
-        <v>6800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>14700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>764300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>96400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>48000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>21800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1133200</v>
+      </c>
+      <c r="E21" s="3">
         <v>213900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>509100</v>
       </c>
-      <c r="G21" s="3">
-        <v>289200</v>
-      </c>
       <c r="H21" s="3">
+        <v>1053900</v>
+      </c>
+      <c r="I21" s="3">
         <v>192200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>211900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>243700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1019100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>294600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>304700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>255700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E22" s="3">
         <v>56200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>57600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58400</v>
       </c>
-      <c r="G22" s="3">
-        <v>58100</v>
-      </c>
       <c r="H22" s="3">
+        <v>217600</v>
+      </c>
+      <c r="I22" s="3">
         <v>61200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>49300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>63500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>73000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>75100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>64800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>261500</v>
       </c>
-      <c r="G23" s="3">
-        <v>40300</v>
-      </c>
       <c r="H23" s="3">
+        <v>176300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-40900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>62400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>833600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>98900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>88400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>24200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-33000</v>
       </c>
-      <c r="G24" s="3">
-        <v>-5700</v>
-      </c>
       <c r="H24" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="I24" s="3">
         <v>-6300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>227100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-40100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>72100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>294500</v>
       </c>
-      <c r="G26" s="3">
-        <v>46000</v>
-      </c>
       <c r="H26" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I26" s="3">
         <v>-34700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>65900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>836500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>103800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>93000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>42700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>143700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>51100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>277700</v>
       </c>
-      <c r="G27" s="3">
-        <v>43200</v>
-      </c>
       <c r="H27" s="3">
+        <v>159400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-46200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-14000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>830200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>98900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>89500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>39800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,13 +1571,16 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>267500</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1531,8 +1591,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-115400</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1540,11 +1600,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1552,11 +1612,14 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-208000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-6800</v>
-      </c>
       <c r="H32" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-14700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-764300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-96400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-48000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-21800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>411100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>51100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>277700</v>
       </c>
-      <c r="G33" s="3">
-        <v>43200</v>
-      </c>
       <c r="H33" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I33" s="3">
         <v>-46200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>830200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>98900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>89500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>39800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>411100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>51100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>277700</v>
       </c>
-      <c r="G35" s="3">
-        <v>43200</v>
-      </c>
       <c r="H35" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I35" s="3">
         <v>-46200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>830200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>98900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>89500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>39800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +1966,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E41" s="3">
         <v>197100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>731000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>783500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>125000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>130500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>120100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>110800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>78900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>91400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>86000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,90 +2052,99 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E43" s="3">
         <v>63200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>73400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>85000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>59400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>53800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>48600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>446400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>51500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>108100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>423100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>692700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>436200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,131 +2228,143 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>652800</v>
+      </c>
+      <c r="E47" s="3">
         <v>724100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>773000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>761500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1119800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>750800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1011100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1006100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2124500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2200500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2206900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2464600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11312100</v>
+      </c>
+      <c r="E48" s="3">
         <v>11225100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12980700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12753700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11205500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11708100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11406300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10792900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10209500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10235700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9962000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10859200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>519900</v>
+      </c>
+      <c r="E49" s="3">
         <v>501600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>537600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>550300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>331700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>303700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>318000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>275600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>305100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>305800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>294100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>395300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2693500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2315600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>484400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>378400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>544800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>432900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>186500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>37400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>29100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>30500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>31900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15920100</v>
+      </c>
+      <c r="E54" s="3">
         <v>15751800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16316400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16072700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14032900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14010200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13713100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12899500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12718600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13084000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13451400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14067600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,116 +2618,123 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>763400</v>
+      </c>
+      <c r="E57" s="3">
         <v>834500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>847100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>856000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>456200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>431500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>371200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>352600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>391600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>410800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>398900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>391900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>142600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2600</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E59" s="3">
         <v>175000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>177000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>156800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>156300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>154900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>152800</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
@@ -2612,8 +2748,11 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,90 +2792,99 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6155400</v>
+      </c>
+      <c r="E61" s="3">
         <v>6378000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6724600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6382900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6347500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6599400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6289100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5761200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5564300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6797400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7401300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7962900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>415700</v>
+      </c>
+      <c r="E62" s="3">
         <v>93000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>32600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>31700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>36400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9131700</v>
+      </c>
+      <c r="E66" s="3">
         <v>8911800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9217800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8836200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7947800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8077100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7658700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7062600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6774100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8012800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8307900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8861300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3976200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6788300</v>
+      </c>
+      <c r="E76" s="3">
         <v>6840100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7098700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7236500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6085100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>5933100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6054400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5836900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5944400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5071200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5143500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5206300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>411100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>51100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>277700</v>
       </c>
-      <c r="G81" s="3">
-        <v>43200</v>
-      </c>
       <c r="H81" s="3">
+        <v>44000</v>
+      </c>
+      <c r="I81" s="3">
         <v>-46200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>830200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>98900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>89500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>39800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>697100</v>
+      </c>
+      <c r="E83" s="3">
         <v>173600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>178500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>189300</v>
       </c>
-      <c r="G83" s="3">
-        <v>190800</v>
-      </c>
       <c r="H83" s="3">
+        <v>660000</v>
+      </c>
+      <c r="I83" s="3">
         <v>171900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>165300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>132000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>130800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>132200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>143300</v>
       </c>
       <c r="N83" s="3">
         <v>143300</v>
       </c>
       <c r="O83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="P83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>758400</v>
+      </c>
+      <c r="E89" s="3">
         <v>219900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>224800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>95000</v>
       </c>
-      <c r="G89" s="3">
-        <v>217500</v>
-      </c>
       <c r="H89" s="3">
+        <v>846100</v>
+      </c>
+      <c r="I89" s="3">
         <v>248000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>222000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>158600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>215800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>193200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>243500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>196200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-791600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-39500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-280900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-20000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-185500</v>
-      </c>
       <c r="H91" s="3">
+        <v>-626900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-151500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-183600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-106300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-110700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-292300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-22100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1007700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-231200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-384300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-151000</v>
       </c>
-      <c r="G94" s="3">
-        <v>-7300</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1448800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-352500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-928700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-160300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1011700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>325800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>481000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-787100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-199500</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-199600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-188500</v>
       </c>
-      <c r="G96" s="3">
-        <v>-183500</v>
-      </c>
       <c r="H96" s="3">
+        <v>-720100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-177300</v>
       </c>
       <c r="J96" s="3">
         <v>-177300</v>
       </c>
       <c r="K96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="L96" s="3">
         <v>-174300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-174100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-174300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-174100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,66 +4321,72 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-525800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>106200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>761400</v>
       </c>
-      <c r="G100" s="3">
-        <v>-181000</v>
-      </c>
       <c r="H100" s="3">
+        <v>647300</v>
+      </c>
+      <c r="I100" s="3">
         <v>103600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>716100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>8500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-532400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-720500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-171200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -4147,59 +4395,65 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-537100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-53500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>705400</v>
       </c>
-      <c r="G102" s="3">
-        <v>29600</v>
-      </c>
       <c r="H102" s="3">
+        <v>44800</v>
+      </c>
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>35800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>455300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1644900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>597700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>588400</v>
       </c>
-      <c r="G8" s="3">
-        <v>585200</v>
-      </c>
       <c r="H8" s="3">
+        <v>381100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1240300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>538000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>491600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>436200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>441900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>456000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>469600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>479200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>177600</v>
+      </c>
+      <c r="E9" s="3">
         <v>782500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>314300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>315800</v>
       </c>
-      <c r="G9" s="3">
-        <v>376000</v>
-      </c>
       <c r="H9" s="3">
+        <v>521000</v>
+      </c>
+      <c r="I9" s="3">
         <v>405200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>248100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>214000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>168900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>177400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>181200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>173900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>172600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>277700</v>
+      </c>
+      <c r="E10" s="3">
         <v>862400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>283400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>272600</v>
       </c>
-      <c r="G10" s="3">
-        <v>209200</v>
-      </c>
       <c r="H10" s="3">
+        <v>-139900</v>
+      </c>
+      <c r="I10" s="3">
         <v>835100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>289900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>277600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>267300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>264500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>274800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>295700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>306600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E14" s="3">
         <v>88700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>52500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>49900</v>
       </c>
-      <c r="G14" s="3">
-        <v>38300</v>
-      </c>
       <c r="H14" s="3">
+        <v>102700</v>
+      </c>
+      <c r="I14" s="3">
         <v>77000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>76200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>67200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>37300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>53200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>9100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E15" s="3">
         <v>553900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>173600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>178500</v>
       </c>
-      <c r="G15" s="3">
-        <v>189300</v>
-      </c>
       <c r="H15" s="3">
+        <v>125100</v>
+      </c>
+      <c r="I15" s="3">
         <v>435200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>171900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>165300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>132000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>130800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>132200</v>
-      </c>
-      <c r="N15" s="3">
-        <v>143300</v>
       </c>
       <c r="O15" s="3">
         <v>143300</v>
       </c>
       <c r="P15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>531500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1373900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>561400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>566000</v>
       </c>
-      <c r="G17" s="3">
-        <v>473300</v>
-      </c>
       <c r="H17" s="3">
+        <v>242200</v>
+      </c>
+      <c r="I17" s="3">
         <v>840600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>519200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>459700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>335600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>317900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>390000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>356200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>388600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-76200</v>
+      </c>
+      <c r="E18" s="3">
         <v>271000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>36300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22400</v>
       </c>
-      <c r="G18" s="3">
-        <v>111900</v>
-      </c>
       <c r="H18" s="3">
+        <v>138900</v>
+      </c>
+      <c r="I18" s="3">
         <v>399700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>18800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>124000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>66000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>113400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>165000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100000</v>
       </c>
-      <c r="G20" s="3">
-        <v>208000</v>
-      </c>
       <c r="H20" s="3">
+        <v>45200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>14700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>764300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>96400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>48000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>21800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E21" s="3">
         <v>1133200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>213900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300800</v>
       </c>
-      <c r="G21" s="3">
-        <v>509100</v>
-      </c>
       <c r="H21" s="3">
+        <v>373400</v>
+      </c>
+      <c r="I21" s="3">
         <v>1053900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>211900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>243700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1019100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>294600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>304700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>255700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E22" s="3">
         <v>218300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>57600</v>
       </c>
-      <c r="G22" s="3">
-        <v>58400</v>
-      </c>
       <c r="H22" s="3">
+        <v>55700</v>
+      </c>
+      <c r="I22" s="3">
         <v>217600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>61200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>63500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>73000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>75100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="E23" s="3">
         <v>217700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>64800</v>
       </c>
-      <c r="G23" s="3">
-        <v>261500</v>
-      </c>
       <c r="H23" s="3">
+        <v>128400</v>
+      </c>
+      <c r="I23" s="3">
         <v>176300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-40900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>62400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>833600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>98900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>88400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7300</v>
       </c>
-      <c r="G24" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I24" s="3">
         <v>-5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-6300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="E26" s="3">
         <v>227100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-40100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72100</v>
       </c>
-      <c r="G26" s="3">
-        <v>294500</v>
-      </c>
       <c r="H26" s="3">
+        <v>158300</v>
+      </c>
+      <c r="I26" s="3">
         <v>181800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>65900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>836500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>103800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>93000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>42700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-126300</v>
+      </c>
+      <c r="E27" s="3">
         <v>143700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-63800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>51100</v>
       </c>
-      <c r="G27" s="3">
-        <v>277700</v>
-      </c>
       <c r="H27" s="3">
+        <v>142100</v>
+      </c>
+      <c r="I27" s="3">
         <v>159400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-46200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-14000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>61000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>830200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>98900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>89500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>39800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,16 +1632,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>269700</v>
+      </c>
+      <c r="E29" s="3">
         <v>267500</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1592,10 +1653,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>135400</v>
+      </c>
+      <c r="I29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1603,11 +1664,11 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1615,11 +1676,14 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-165000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-208000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="I32" s="3">
         <v>5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-14700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-764300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-96400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-48000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-21800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E33" s="3">
         <v>411100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-63800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>51100</v>
       </c>
-      <c r="G33" s="3">
-        <v>277700</v>
-      </c>
       <c r="H33" s="3">
+        <v>277500</v>
+      </c>
+      <c r="I33" s="3">
         <v>44000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-46200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>830200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>98900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>89500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>39800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E35" s="3">
         <v>411100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-63800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>51100</v>
       </c>
-      <c r="G35" s="3">
-        <v>277700</v>
-      </c>
       <c r="H35" s="3">
+        <v>277500</v>
+      </c>
+      <c r="I35" s="3">
         <v>44000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-46200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>830200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>98900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>89500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>39800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E41" s="3">
         <v>44200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>197100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>731000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>783500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>125000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>130500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>110800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>78900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>91400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>86000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2145,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E43" s="3">
         <v>42300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>63200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>73400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>59400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>53800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>48600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>446400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>51500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2125,26 +2221,29 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>108100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>423100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>692700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>436200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2333,152 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1192400</v>
+      </c>
+      <c r="E47" s="3">
         <v>652800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>724100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>773000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>761500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1119800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>750800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1011100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1006100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2124500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2200500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2206900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2464600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11347400</v>
+      </c>
+      <c r="E48" s="3">
         <v>11312100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11225100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12980700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12753700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11205500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11708100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11406300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10792900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10209500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10235700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9962000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10859200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>495900</v>
+      </c>
+      <c r="E49" s="3">
         <v>519900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>501600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>537600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>550300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>331700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>303700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>318000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>275600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>305100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>305800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>294100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>395300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1442500</v>
+      </c>
+      <c r="E52" s="3">
         <v>2693500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2315600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>484400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>378400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>544800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>432900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>186500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>37400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>29100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>30500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>31900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15193900</v>
+      </c>
+      <c r="E54" s="3">
         <v>15920100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15751800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16316400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16072700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14032900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14010200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13713100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12899500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12718600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13084000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13451400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14067600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,125 +2749,132 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E57" s="3">
         <v>763400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>834500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>847100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>856000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>456200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>431500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>371200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>352600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>391600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>410800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>398900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>391900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E58" s="3">
         <v>142600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2600</v>
       </c>
-      <c r="P58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>328200</v>
+      </c>
+      <c r="E59" s="3">
         <v>179900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>175000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>177000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>156800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>156600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>156300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>154900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>152800</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +2935,105 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5751500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6155400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6378000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6724600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6382900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6347500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6599400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6289100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5761200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5564300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6797400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7401300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7962900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>328200</v>
+      </c>
+      <c r="E62" s="3">
         <v>415700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>93000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>32600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>36400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8429400</v>
+      </c>
+      <c r="E66" s="3">
         <v>9131700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8911800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9217800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8836200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7947800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8077100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7658700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7062600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6774100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8012800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8307900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8861300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3994600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6764500</v>
+      </c>
+      <c r="E76" s="3">
         <v>6788300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6840100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7098700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7236500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6085100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5933100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6054400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5836900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5944400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5071200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5143500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5206300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>143300</v>
+      </c>
+      <c r="E81" s="3">
         <v>411100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-63800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>51100</v>
       </c>
-      <c r="G81" s="3">
-        <v>277700</v>
-      </c>
       <c r="H81" s="3">
+        <v>277500</v>
+      </c>
+      <c r="I81" s="3">
         <v>44000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-46200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>830200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>98900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>89500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>39800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E83" s="3">
         <v>697100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>173600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>178500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>189300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>660000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>171900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>165300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>132000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>130800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>132200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>143300</v>
       </c>
       <c r="O83" s="3">
         <v>143300</v>
       </c>
       <c r="P83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>122700</v>
+      </c>
+      <c r="E89" s="3">
         <v>758400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>219900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>224800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>95000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>846100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>248000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>222000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>158600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>215800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>193200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>243500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>196200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-791600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-39500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-280900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-20000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-626900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-151500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-183600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-106300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-110700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-292300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-22100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>767700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-231200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-384300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-151000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-352500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-928700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-160300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>1011700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>325800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>481000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>10700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-164100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-787100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-199500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-199600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-188500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-720100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-177300</v>
       </c>
       <c r="K96" s="3">
         <v>-177300</v>
       </c>
       <c r="L96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="M96" s="3">
         <v>-174300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-174100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-174300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-174100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,73 +4567,79 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-924100</v>
+      </c>
+      <c r="E100" s="3">
         <v>246500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-525800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>106200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>761400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>647300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>103600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>716100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>8500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-532400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-720500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-171200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -4398,62 +4647,68 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-537100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>705400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>44800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>35800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>476200</v>
+      </c>
+      <c r="E8" s="3">
         <v>455300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1644900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>597700</v>
       </c>
-      <c r="G8" s="3">
-        <v>588400</v>
-      </c>
       <c r="H8" s="3">
+        <v>408600</v>
+      </c>
+      <c r="I8" s="3">
         <v>381100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1240300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>538000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>491600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>436200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>441900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>456000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>469600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>479200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>188900</v>
+      </c>
+      <c r="E9" s="3">
         <v>177600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>782500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>314300</v>
       </c>
-      <c r="G9" s="3">
-        <v>315800</v>
-      </c>
       <c r="H9" s="3">
+        <v>493000</v>
+      </c>
+      <c r="I9" s="3">
         <v>521000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>405200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>248100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>214000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>168900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>177400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>181200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>173900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>172600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>287300</v>
+      </c>
+      <c r="E10" s="3">
         <v>277700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>862400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>283400</v>
       </c>
-      <c r="G10" s="3">
-        <v>272600</v>
-      </c>
       <c r="H10" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="I10" s="3">
         <v>-139900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>835100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>289900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>277600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>267300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>264500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>274800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>295700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>306600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>63100</v>
+      </c>
+      <c r="E14" s="3">
         <v>171600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>88700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>52500</v>
       </c>
-      <c r="G14" s="3">
-        <v>49900</v>
-      </c>
       <c r="H14" s="3">
+        <v>33300</v>
+      </c>
+      <c r="I14" s="3">
         <v>102700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>77000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>76200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>67200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>37300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>53200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E15" s="3">
         <v>157500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>553900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>173600</v>
       </c>
-      <c r="G15" s="3">
-        <v>178500</v>
-      </c>
       <c r="H15" s="3">
+        <v>139700</v>
+      </c>
+      <c r="I15" s="3">
         <v>125100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>435200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>171900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>165300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>132000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>130800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>132200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>143300</v>
       </c>
       <c r="P15" s="3">
         <v>143300</v>
       </c>
       <c r="Q15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="R15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>448100</v>
+      </c>
+      <c r="E17" s="3">
         <v>531500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1373900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>561400</v>
       </c>
-      <c r="G17" s="3">
-        <v>566000</v>
-      </c>
       <c r="H17" s="3">
+        <v>371700</v>
+      </c>
+      <c r="I17" s="3">
         <v>242200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>840600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>519200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>459700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>335600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>317900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>390000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>356200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>388600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-76200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>271000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36300</v>
       </c>
-      <c r="G18" s="3">
-        <v>22400</v>
-      </c>
       <c r="H18" s="3">
+        <v>36900</v>
+      </c>
+      <c r="I18" s="3">
         <v>138900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>399700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>18800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>124000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>66000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>113400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>90600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>165000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
-        <v>100000</v>
-      </c>
       <c r="H20" s="3">
+        <v>96100</v>
+      </c>
+      <c r="I20" s="3">
         <v>45200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>764300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>96400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>48000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>21800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>376600</v>
+      </c>
+      <c r="E21" s="3">
         <v>82500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1133200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>213900</v>
       </c>
-      <c r="G21" s="3">
-        <v>300800</v>
-      </c>
       <c r="H21" s="3">
+        <v>311500</v>
+      </c>
+      <c r="I21" s="3">
         <v>373400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1053900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>211900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>243700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1019100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>294600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>304700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>255700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E22" s="3">
         <v>46800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>218300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56200</v>
       </c>
-      <c r="G22" s="3">
-        <v>57600</v>
-      </c>
       <c r="H22" s="3">
+        <v>54800</v>
+      </c>
+      <c r="I22" s="3">
         <v>55700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>217600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>61200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>49300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>73000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>75100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-121900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>217700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15900</v>
       </c>
-      <c r="G23" s="3">
-        <v>64800</v>
-      </c>
       <c r="H23" s="3">
+        <v>78200</v>
+      </c>
+      <c r="I23" s="3">
         <v>128400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>176300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-40900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>62400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>833600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>98900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>88400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-9400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24200</v>
       </c>
-      <c r="G24" s="3">
-        <v>-7300</v>
-      </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>-29900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-6300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>167200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-121900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>227100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-40100</v>
       </c>
-      <c r="G26" s="3">
-        <v>72100</v>
-      </c>
       <c r="H26" s="3">
+        <v>78100</v>
+      </c>
+      <c r="I26" s="3">
         <v>158300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>181800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>65900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>836500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>103800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>93000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>42700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>164200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-126300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>143700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-63800</v>
       </c>
-      <c r="G27" s="3">
-        <v>51100</v>
-      </c>
       <c r="H27" s="3">
-        <v>142100</v>
+        <v>56500</v>
       </c>
       <c r="I27" s="3">
+        <v>142200</v>
+      </c>
+      <c r="J27" s="3">
         <v>159400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-46200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-14000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>61000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>830200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>98900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>89500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>39800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,31 +1693,34 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>111800</v>
+      </c>
+      <c r="E29" s="3">
         <v>269700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>267500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I29" s="3">
         <v>135400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1667,11 +1728,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1679,11 +1740,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-177000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-165000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-100000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="I32" s="3">
         <v>-45200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-764300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-96400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-48000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-21800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E33" s="3">
         <v>143300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>411100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-63800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>51100</v>
       </c>
-      <c r="H33" s="3">
-        <v>277500</v>
-      </c>
       <c r="I33" s="3">
+        <v>277700</v>
+      </c>
+      <c r="J33" s="3">
         <v>44000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-46200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>830200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>98900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>89500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>39800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E35" s="3">
         <v>143300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>411100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-63800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>51100</v>
       </c>
-      <c r="H35" s="3">
-        <v>277500</v>
-      </c>
       <c r="I35" s="3">
+        <v>277700</v>
+      </c>
+      <c r="J35" s="3">
         <v>44000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-46200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>830200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>98900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>89500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>39800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E41" s="3">
         <v>34000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>197100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>731000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>783500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>144200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>125000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>130500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>78900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>91400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>86000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E43" s="3">
         <v>38900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>42300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>63200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>73400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>59400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>53800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>48600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>446400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>51500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2224,26 +2320,29 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>108100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>423100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>692700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>436200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,149 +2438,161 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>867800</v>
+      </c>
+      <c r="E47" s="3">
         <v>1192400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>652800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>724100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>773000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>761500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1119800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>750800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1011100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1006100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2124500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2200500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2206900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2464600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11819300</v>
+      </c>
+      <c r="E48" s="3">
         <v>11347400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11312100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11225100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12980700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12753700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11205500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11708100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11406300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10792900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10209500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10235700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9962000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10859200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>511600</v>
+      </c>
+      <c r="E49" s="3">
         <v>495900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>519900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>501600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>537600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>550300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>331700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>303700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>318000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>275600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>305100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>305800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>294100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>395300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>375900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1442500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2693500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2315600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>484400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>378400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>544800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>432900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>186500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>37400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>29100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>30500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>31900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14332400</v>
+      </c>
+      <c r="E54" s="3">
         <v>15193900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15920100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15751800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16316400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16072700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14032900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14010200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13713100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12899500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12718600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13084000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13451400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14067600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,134 +2880,141 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>217900</v>
+      </c>
+      <c r="E57" s="3">
         <v>241800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>763400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>834500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>847100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>856000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>456200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>431500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>371200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>352600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>391600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>410800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>398900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>391900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E58" s="3">
         <v>11600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>142600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2600</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>358300</v>
+      </c>
+      <c r="E59" s="3">
         <v>328200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>179900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>175000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>177000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>156800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>156600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>156300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>154900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>152800</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,102 +3078,111 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5028200</v>
+      </c>
+      <c r="E61" s="3">
         <v>5751500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6155400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6378000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6724600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6382900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6347500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6599400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6289100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5761200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5564300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6797400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7401300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7962900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E62" s="3">
         <v>328200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>415700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>93000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>32600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>31700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>36400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>35100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7447500</v>
+      </c>
+      <c r="E66" s="3">
         <v>8429400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9131700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8911800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9217800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8836200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7947800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8077100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7658700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7062600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6774100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8012800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8307900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8861300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3880300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6884900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6764500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6788300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6840100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7098700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7236500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6085100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5933100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6054400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5836900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5944400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5071200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5143500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5206300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E81" s="3">
         <v>143300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>411100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-63800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>51100</v>
       </c>
-      <c r="H81" s="3">
-        <v>277500</v>
-      </c>
       <c r="I81" s="3">
+        <v>277700</v>
+      </c>
+      <c r="J81" s="3">
         <v>44000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-46200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>830200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>98900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>89500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>39800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>171500</v>
+      </c>
+      <c r="E83" s="3">
         <v>157500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>697100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>173600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>178500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>189300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>660000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>171900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>165300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>132000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>130800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>132200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>143300</v>
       </c>
       <c r="P83" s="3">
         <v>143300</v>
       </c>
       <c r="Q83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="R83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E89" s="3">
         <v>122700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>758400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>219900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>224800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>95000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>846100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>248000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>222000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>158600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>215800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>193200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>243500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>196200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-266900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-791600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-280900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-20000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-626900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-151500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-183600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-110700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-292300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-22100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>944600</v>
+      </c>
+      <c r="E94" s="3">
         <v>767700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-231200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-384300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-151000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-352500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-928700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-160300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1011700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>325800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>481000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-164100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-787100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-199500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-199600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-188500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-720100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-177300</v>
       </c>
       <c r="L96" s="3">
         <v>-177300</v>
       </c>
       <c r="M96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="N96" s="3">
         <v>-174300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-174100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-174300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-174100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1085200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-924100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>246500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-525800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>106200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>761400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>647300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>103600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>716100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>8500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-532400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-720500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-171200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4626,23 +4875,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -4650,65 +4899,71 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-537100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-53500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>705400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>44800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-13200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>481500</v>
+      </c>
+      <c r="E8" s="3">
         <v>476200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>455300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1644900</v>
       </c>
-      <c r="G8" s="3">
-        <v>597700</v>
-      </c>
       <c r="H8" s="3">
+        <v>423600</v>
+      </c>
+      <c r="I8" s="3">
         <v>408600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>381100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1240300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>538000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>491600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>436200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>441900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>456000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>469600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>479200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E9" s="3">
         <v>188900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>177600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>782500</v>
       </c>
-      <c r="G9" s="3">
-        <v>314300</v>
-      </c>
       <c r="H9" s="3">
+        <v>495200</v>
+      </c>
+      <c r="I9" s="3">
         <v>493000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>521000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>405200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>248100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>214000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>168900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>177400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>181200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>173900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>172600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>280600</v>
+      </c>
+      <c r="E10" s="3">
         <v>287300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>277700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>862400</v>
       </c>
-      <c r="G10" s="3">
-        <v>283400</v>
-      </c>
       <c r="H10" s="3">
+        <v>-71600</v>
+      </c>
+      <c r="I10" s="3">
         <v>-84400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-139900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>835100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>289900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>277600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>267300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>264500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>274800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>295700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>306600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E14" s="3">
         <v>63100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>171600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>88700</v>
       </c>
-      <c r="G14" s="3">
-        <v>52500</v>
-      </c>
       <c r="H14" s="3">
+        <v>18400</v>
+      </c>
+      <c r="I14" s="3">
         <v>33300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>102700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>77000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>76200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>67200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>37300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>53200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E15" s="3">
         <v>171500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>157500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>553900</v>
       </c>
-      <c r="G15" s="3">
-        <v>173600</v>
-      </c>
       <c r="H15" s="3">
+        <v>142000</v>
+      </c>
+      <c r="I15" s="3">
         <v>139700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>125100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>435200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>171900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>165300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>132000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>130800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>132200</v>
-      </c>
-      <c r="P15" s="3">
-        <v>143300</v>
       </c>
       <c r="Q15" s="3">
         <v>143300</v>
       </c>
       <c r="R15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="S15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>403500</v>
+      </c>
+      <c r="E17" s="3">
         <v>448100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>531500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1373900</v>
       </c>
-      <c r="G17" s="3">
-        <v>561400</v>
-      </c>
       <c r="H17" s="3">
+        <v>361600</v>
+      </c>
+      <c r="I17" s="3">
         <v>371700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>242200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>840600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>519200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>459700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>335600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>317900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>390000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>356200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>388600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E18" s="3">
         <v>28100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-76200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>271000</v>
       </c>
-      <c r="G18" s="3">
-        <v>36300</v>
-      </c>
       <c r="H18" s="3">
+        <v>62000</v>
+      </c>
+      <c r="I18" s="3">
         <v>36900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>138900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>399700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>124000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>66000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>113400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>90600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E20" s="3">
         <v>177000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>165000</v>
       </c>
-      <c r="G20" s="3">
-        <v>4000</v>
-      </c>
       <c r="H20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I20" s="3">
         <v>96100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>45200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>14700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>11100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>764300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>96400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>48000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>21800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>271400</v>
+      </c>
+      <c r="E21" s="3">
         <v>376600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>82500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1133200</v>
       </c>
-      <c r="G21" s="3">
-        <v>213900</v>
-      </c>
       <c r="H21" s="3">
+        <v>241300</v>
+      </c>
+      <c r="I21" s="3">
         <v>311500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>373400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1053900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>211900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>243700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1019100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>294600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>304700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>255700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E22" s="3">
         <v>38700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>46800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>218300</v>
       </c>
-      <c r="G22" s="3">
-        <v>56200</v>
-      </c>
       <c r="H22" s="3">
+        <v>53700</v>
+      </c>
+      <c r="I22" s="3">
         <v>54800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>55700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>217600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>61200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>63500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>73000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>75100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E23" s="3">
         <v>166400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-121900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>217700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-15900</v>
-      </c>
       <c r="H23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="I23" s="3">
         <v>78200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>128400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>176300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-40900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>62400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>833600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>98900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>88400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-9400</v>
       </c>
-      <c r="G24" s="3">
-        <v>24200</v>
-      </c>
       <c r="H24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-29900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-3500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E26" s="3">
         <v>167200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-121900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>227100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-40100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I26" s="3">
         <v>78100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>158300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>181800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-34700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>836500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>103800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>93000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>42700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E27" s="3">
         <v>164200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-126300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>143700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-63800</v>
-      </c>
       <c r="H27" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="I27" s="3">
         <v>56500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>142200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>159400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-46200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-14000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>830200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>98900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>89500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>39800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,34 +1754,37 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>600</v>
+      </c>
+      <c r="E29" s="3">
         <v>111800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>269700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>267500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="I29" s="3">
         <v>-5300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>135400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1731,11 +1792,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1743,11 +1804,14 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-177000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-165000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-4000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-96100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-45200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-14700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-11100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-764300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-96400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-21800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E33" s="3">
         <v>276000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>143300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>411100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-63800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>51100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>277700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>44000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-46200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-14000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>830200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>98900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>89500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>39800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E35" s="3">
         <v>276000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>143300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>411100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-63800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>51100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>277700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>44000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-46200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-14000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>830200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>98900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>89500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>39800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E41" s="3">
         <v>96900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>197100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>731000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>783500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>144200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>125000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>130500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>78900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>91400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>86000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2331,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E43" s="3">
         <v>41800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>38900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>42300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>63200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>73400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>85000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>59400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>53800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>48600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>446400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>51500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2323,26 +2419,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>108100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>423100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>692700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>436200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2490,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,158 +2543,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>848300</v>
+      </c>
+      <c r="E47" s="3">
         <v>867800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>1192400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>652800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>724100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>773000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>761500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1119800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>750800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1011100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1006100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2124500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2200500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2206900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2464600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12295200</v>
+      </c>
+      <c r="E48" s="3">
         <v>11819300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11347400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11312100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11225100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12980700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12753700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11205500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11708100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11406300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10792900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10209500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10235700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9962000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10859200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>520300</v>
+      </c>
+      <c r="E49" s="3">
         <v>511600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>495900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>519900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>501600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>537600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>550300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>331700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>303700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>318000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>275600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>305100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>305800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>294100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>395300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>158700</v>
+      </c>
+      <c r="E52" s="3">
         <v>375900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1442500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2693500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2315600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>484400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>378400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>544800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>432900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>186500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>37400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>29100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>30500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>31900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14743500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14332400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15193900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15920100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15751800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16316400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16072700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14032900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14010200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13713100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12899500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12718600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13084000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13451400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14067600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,143 +3011,150 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>252100</v>
+      </c>
+      <c r="E57" s="3">
         <v>217900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>241800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>763400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>834500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>847100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>856000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>456200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>431500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>371200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>352600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>391600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>410800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>398900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>391900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E58" s="3">
         <v>10200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>142600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2600</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E59" s="3">
         <v>358300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>328200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>179900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>175000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>177000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>156800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>156600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>154900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>152800</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
@@ -3031,8 +3168,11 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,108 +3221,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5529700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5028200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5751500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6155400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6378000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6724600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6382900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6347500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6599400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6289100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5761200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5564300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6797400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7401300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7962900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E62" s="3">
         <v>65300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>328200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>415700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>93000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>32600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>31700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8073100</v>
+      </c>
+      <c r="E66" s="3">
         <v>7447500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8429400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9131700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8911800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9217800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8836200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7947800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8077100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7658700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7062600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6774100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8012800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8307900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8861300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3987500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6670400</v>
+      </c>
+      <c r="E76" s="3">
         <v>6884900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6764500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6788300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6840100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7098700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7236500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6085100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5933100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6054400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5836900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5944400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5071200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5143500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5206300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>54400</v>
+      </c>
+      <c r="E81" s="3">
         <v>276000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>143300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>411100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-63800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>51100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>277700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>44000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-46200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-14000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>830200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>98900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>89500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>39800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177200</v>
+      </c>
+      <c r="E83" s="3">
         <v>171500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>157500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>697100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>173600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>178500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>189300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>660000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>171900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>165300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>132000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>130800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>132200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>143300</v>
       </c>
       <c r="Q83" s="3">
         <v>143300</v>
       </c>
       <c r="R83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="S83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>211700</v>
+      </c>
+      <c r="E89" s="3">
         <v>236900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>122700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>758400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>219900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>224800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>95000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>846100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>248000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>222000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>158600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>215800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>193200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>243500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>196200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-148700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-266900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-791600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-280900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-20000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-626900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-151500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-183600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-110700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-292300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-22100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-508600</v>
+      </c>
+      <c r="E94" s="3">
         <v>944600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>767700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-231200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-384300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-151000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-352500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-928700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-160300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1011700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>325800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>481000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,49 +4859,52 @@
         <v>-162000</v>
       </c>
       <c r="E96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-164100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-787100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-199500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-199600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-188500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-720100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-177300</v>
       </c>
       <c r="M96" s="3">
         <v>-177300</v>
       </c>
       <c r="N96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="O96" s="3">
         <v>-174300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-174100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-174300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-174100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>321400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-924100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>246500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-525800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>106200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>761400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>647300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>103600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>716100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>8500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-532400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-720500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-171200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4878,23 +5127,23 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4902,68 +5151,74 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E102" s="3">
         <v>96300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-537100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-53500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>705400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>44800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-13200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>483200</v>
+      </c>
+      <c r="E8" s="3">
         <v>481500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>476200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>455300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1644900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>423600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>408600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>381100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1240300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>538000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>491600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>436200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>441900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>456000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>469600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>479200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>198800</v>
+      </c>
+      <c r="E9" s="3">
         <v>200900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>177600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>782500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>495200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>493000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>521000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>405200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>248100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>214000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>168900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>177400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>181200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>173900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>172600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>284400</v>
+      </c>
+      <c r="E10" s="3">
         <v>280600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>287300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>277700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>862400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-71600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-84400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-139900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>835100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>289900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>277600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>267300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>264500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>274800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>295700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>306600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E14" s="3">
         <v>2200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>63100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>171600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>88700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>102700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>77000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>76200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>67200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>37300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>53200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E15" s="3">
         <v>177200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>171500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>157500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>553900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>142000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>139700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>125100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>435200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>171900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>165300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>132000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>130800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>132200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>143300</v>
       </c>
       <c r="R15" s="3">
         <v>143300</v>
       </c>
       <c r="S15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="T15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>422500</v>
+      </c>
+      <c r="E17" s="3">
         <v>403500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>448100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>531500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1373900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>361600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>371700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>242200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>840600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>519200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>459700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>335600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>317900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>390000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>356200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>388600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E18" s="3">
         <v>78000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-76200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>271000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>62000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>138900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>399700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>124000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>66000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>16300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>177000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>165000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>96100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>45200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>14700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>764300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>96400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>48000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>21800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E21" s="3">
         <v>271400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>376600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>82500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1133200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>241300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>311500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>373400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1053900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>211900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>243700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1019100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>294600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>304700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>255700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E22" s="3">
         <v>35900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>46800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>218300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>53700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>54800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>55700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>217600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>61200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>63500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>73000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>75100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E23" s="3">
         <v>58300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>166400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-121900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>217700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>78200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>128400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-40900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>62400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>833600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>98900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>88400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-9400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-29900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E26" s="3">
         <v>59000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>167200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-121900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>227100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>78100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>158300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-34700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>65900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>836500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>103800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>93000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>42700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E27" s="3">
         <v>53800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>164200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-126300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>143700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>142200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>159400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-46200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-14000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>61000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>830200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>98900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>89500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>39800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,37 +1814,40 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E29" s="3">
         <v>600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>111800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>269700</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>267500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-32000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-5300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>135400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1795,11 +1855,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1807,11 +1867,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-177000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-165000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-96100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-45200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-14700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-764300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-96400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-48000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-21800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E33" s="3">
         <v>54400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>276000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>143300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>411100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-63800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>51100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>277700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>44000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-14000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>830200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>98900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>89500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>39800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E35" s="3">
         <v>54400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>276000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>143300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>411100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-63800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>51100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>277700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>44000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-14000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>830200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>98900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>89500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>39800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>158300</v>
+      </c>
+      <c r="E41" s="3">
         <v>201100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>44200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>197100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>731000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>783500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>125000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>130500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>110800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>78900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>91400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>86000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>48700</v>
+      </c>
+      <c r="E43" s="3">
         <v>44700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>41800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>38900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>42300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>63200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>73400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>85000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>59400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>53800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>48600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>48700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>446400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>51500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2422,26 +2517,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>108100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>423100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>692700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>436200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2493,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2546,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>865400</v>
+      </c>
+      <c r="E47" s="3">
         <v>848300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>867800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1192400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>652800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>724100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>773000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>761500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1119800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>750800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1011100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1006100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2124500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2200500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2206900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2464600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12901400</v>
+      </c>
+      <c r="E48" s="3">
         <v>12295200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11819300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11347400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11312100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11225100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12980700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12753700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11205500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11708100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11406300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10792900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10209500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10235700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9962000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10859200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>519800</v>
+      </c>
+      <c r="E49" s="3">
         <v>520300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>511600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>495900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>519900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>501600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>537600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>550300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>331700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>303700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>318000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>275600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>305100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>305800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>294100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>395300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E52" s="3">
         <v>158700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>375900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1442500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2693500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2315600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>484400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>378400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>544800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>432900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>37400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>29100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>30500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15257500</v>
+      </c>
+      <c r="E54" s="3">
         <v>14743500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14332400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15193900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15920100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15751800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16316400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16072700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14032900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14010200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13713100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12899500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12718600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13084000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13451400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14067600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,152 +3141,159 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>227600</v>
+      </c>
+      <c r="E57" s="3">
         <v>252100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>217900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>241800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>763400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>834500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>847100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>856000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>456200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>431500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>371200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>352600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>391600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>410800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>398900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>391900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>8700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>142600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2600</v>
       </c>
-      <c r="S58" s="3" t="s">
+      <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>443900</v>
+      </c>
+      <c r="E59" s="3">
         <v>373000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>358300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>328200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>179900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>175000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>177000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>156800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>154900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>152800</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
@@ -3171,8 +3307,11 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3224,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6164900</v>
+      </c>
+      <c r="E61" s="3">
         <v>5529700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5028200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5751500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6155400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6378000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6724600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6382900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6347500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6599400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6289100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5761200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5564300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6797400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7401300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7962900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E62" s="3">
         <v>18900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>328200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>415700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>93000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>32600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8742000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8073100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7447500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8429400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9131700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8911800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9217800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8836200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7947800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8077100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7658700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7062600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6774100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8012800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8307900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8861300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4120800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3987500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6515500</v>
+      </c>
+      <c r="E76" s="3">
         <v>6670400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6884900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6764500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6788300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6840100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7098700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7236500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6085100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5933100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6054400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5836900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5944400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5071200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5143500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5206300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E81" s="3">
         <v>54400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>276000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>143300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>411100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-63800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>51100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>277700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>44000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-14000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>830200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>98900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>89500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>39800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>178100</v>
+      </c>
+      <c r="E83" s="3">
         <v>177200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>171500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>157500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>697100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>173600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>178500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>189300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>660000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>171900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>165300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>132000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>130800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>132200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>143300</v>
       </c>
       <c r="R83" s="3">
         <v>143300</v>
       </c>
       <c r="S83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="T83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E89" s="3">
         <v>211700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>236900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>122700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>758400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>219900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>224800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>95000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>846100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>248000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>222000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>158600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>215800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>193200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>243500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>196200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-148700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-266900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-791600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-39500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-280900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-626900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-151500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-183600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-106300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-110700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-292300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-22100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-672600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-508600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>944600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>767700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-231200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-384300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-151000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-352500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-928700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-160300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1011700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>325800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>481000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,49 +5095,52 @@
         <v>-162000</v>
       </c>
       <c r="F96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-164100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-787100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-199500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-199600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-188500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-720100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-177300</v>
       </c>
       <c r="N96" s="3">
         <v>-177300</v>
       </c>
       <c r="O96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="P96" s="3">
         <v>-174300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-174100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-174300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-174100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>399400</v>
+      </c>
+      <c r="E100" s="3">
         <v>321400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-924100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>246500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-525800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>106200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>761400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>647300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>103600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>716100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-532400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-720500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-171200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5130,23 +5378,23 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -5154,71 +5402,77 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-49400</v>
+      </c>
+      <c r="E102" s="3">
         <v>24500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>96300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-537100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-53500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>705400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>31100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>498400</v>
+      </c>
+      <c r="E8" s="3">
         <v>483200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>481500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>476200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>455300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1644900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>423600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>408600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>381100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1240300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>538000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>491600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>436200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>441900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>456000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>469600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>479200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E9" s="3">
         <v>198800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>188900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>177600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>782500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>495200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>493000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>521000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>405200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>248100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>214000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>168900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>177400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>181200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>173900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>172600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>291400</v>
+      </c>
+      <c r="E10" s="3">
         <v>284400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>280600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>287300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>277700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>862400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-71600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-84400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-139900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>835100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>289900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>277600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>267300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>264500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>274800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>295700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>306600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
         <v>19100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>63100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>171600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>88700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>18400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>102700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>77000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>76200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>67200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>8900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>37300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>53200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>9100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E15" s="3">
         <v>178100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>177200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>171500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>157500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>553900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>142000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>139700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>125100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>435200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>171900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>165300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>132000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>130800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>132200</v>
-      </c>
-      <c r="R15" s="3">
-        <v>143300</v>
       </c>
       <c r="S15" s="3">
         <v>143300</v>
       </c>
       <c r="T15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="U15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>409200</v>
+      </c>
+      <c r="E17" s="3">
         <v>422500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>403500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>448100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>531500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1373900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>361600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>371700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>242200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>840600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>519200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>459700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>335600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>317900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>390000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>356200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>388600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E18" s="3">
         <v>60700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>78000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>28100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-76200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>271000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>62000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>138900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>399700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>124000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>66000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>113400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>16300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>177000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>165000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>96100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>45200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>14700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>764300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>96400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>48000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>21800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E21" s="3">
         <v>240200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>271400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>376600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>82500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1133200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>241300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>311500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>373400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1053900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>192200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>211900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>243700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1019100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>294600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>304700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>255700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E22" s="3">
         <v>36600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>35900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>46800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>218300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>53700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>54800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>217600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>56900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>63500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>73000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>75100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E23" s="3">
         <v>25500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>58300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>166400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-121900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>217700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>78200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>128400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-40900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>62400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>833600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>98900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>88400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>37300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-800</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-9400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-29900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>72900</v>
+      </c>
+      <c r="E26" s="3">
         <v>27400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>59000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>167200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-121900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>227100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>78100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>158300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-34700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>65900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>836500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>103800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>93000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>42700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69300</v>
+      </c>
+      <c r="E27" s="3">
         <v>24900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>53800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>164200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-126300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>143700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>56500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>159400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>61000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>830200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>98900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>89500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>39800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,40 +1875,43 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
         <v>3600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>111800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>269700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>267500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-32000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>135400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1858,11 +1919,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1870,11 +1931,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-16300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-177000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-165000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-96100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-45200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-14700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-764300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-96400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-48000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-21800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E33" s="3">
         <v>28500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>54400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>276000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>143300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>411100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-63800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>277700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>44000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>830200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>98900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>89500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>39800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E35" s="3">
         <v>28500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>54400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>276000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>143300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>411100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-63800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>277700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>44000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>830200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>98900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>89500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>39800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89100</v>
+      </c>
+      <c r="E41" s="3">
         <v>158300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>201100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>197100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>731000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>783500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>125000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>120100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>110800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>78900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>91400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>86000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E43" s="3">
         <v>48700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>44700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>38900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>42300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>63200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>73400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>59400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>53800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>48600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>48200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>48700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>446400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>51500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2520,26 +2616,29 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>108100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>423100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>692700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>436200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2752,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>812900</v>
+      </c>
+      <c r="E47" s="3">
         <v>865400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>848300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>867800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>1192400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>652800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>724100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>773000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>761500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1119800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>750800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1011100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1006100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2124500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2200500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2206900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2464600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13071600</v>
+      </c>
+      <c r="E48" s="3">
         <v>12901400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12295200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11819300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11347400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11312100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11225100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12980700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12753700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11205500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11708100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11406300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10792900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10209500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10235700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>9962000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10859200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>497100</v>
+      </c>
+      <c r="E49" s="3">
         <v>519800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>520300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>511600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>495900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>519900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>537600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>550300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>331700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>303700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>318000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>275600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>305100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>305800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>294100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>395300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E52" s="3">
         <v>90600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>158700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>375900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1442500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2693500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2315600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>484400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>378400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>544800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>432900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>186500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>29100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>30500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15287300</v>
+      </c>
+      <c r="E54" s="3">
         <v>15257500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14743500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14332400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15193900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15920100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15751800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16316400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16072700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>14032900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14010200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13713100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12899500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12718600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13084000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13451400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14067600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,161 +3272,168 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>215100</v>
+      </c>
+      <c r="E57" s="3">
         <v>227600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>252100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>217900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>241800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>763400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>834500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>847100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>856000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>456200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>431500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>371200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>352600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>391600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>410800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>398900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>391900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>142600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2600</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>403000</v>
+      </c>
+      <c r="E59" s="3">
         <v>443900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>373000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>358300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>328200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>179900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>175000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>177000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>156800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>154900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>152800</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3506,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6331800</v>
+      </c>
+      <c r="E61" s="3">
         <v>6164900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5529700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5028200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5751500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6155400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6378000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6724600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6382900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6347500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6599400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6289100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5761200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5564300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6797400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7401300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7962900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E62" s="3">
         <v>15100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>328200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>415700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>93000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>32600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>36400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8879000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8742000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8073100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7447500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8429400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9131700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8911800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9217800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8836200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7947800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8077100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7658700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7062600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6774100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8012800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8307900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8861300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4212900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4120800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3987500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6408200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6515500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6670400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6884900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6764500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6788300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6840100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7098700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7236500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6085100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5933100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6054400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5836900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5944400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5071200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5143500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5206300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E81" s="3">
         <v>28500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>54400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>276000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>143300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>411100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-63800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>277700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>44000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>830200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>98900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>89500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>39800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>177700</v>
+      </c>
+      <c r="E83" s="3">
         <v>178100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>177200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>171500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>157500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>697100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>173600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>178500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>189300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>660000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>171900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>165300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>132000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>130800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>132200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>143300</v>
       </c>
       <c r="S83" s="3">
         <v>143300</v>
       </c>
       <c r="T83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="U83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>194200</v>
+      </c>
+      <c r="E89" s="3">
         <v>223900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>211700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>236900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>122700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>758400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>219900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>224800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>95000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>846100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>248000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>222000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>158600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>215800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>193200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>243500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>196200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-134100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-180000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-148700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-266900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-791600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-39500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-280900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-626900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-151500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-183600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-106300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-110700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-292300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-22100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-672600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-508600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>944600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>767700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-231200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-384300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-151000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-352500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-928700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-160300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1011700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>325800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>481000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,13 +5316,14 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-162000</v>
+        <v>-163400</v>
       </c>
       <c r="E96" s="3">
         <v>-162000</v>
@@ -5098,49 +5332,52 @@
         <v>-162000</v>
       </c>
       <c r="G96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-164100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-787100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-199500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-199600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-188500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-720100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-177300</v>
       </c>
       <c r="O96" s="3">
         <v>-177300</v>
       </c>
       <c r="P96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-174300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-174100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-174300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-174100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,69 +5550,75 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E100" s="3">
         <v>399400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>321400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-924100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>246500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-525800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>106200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>761400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>647300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>103600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>716100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-532400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-720500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-171200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -5381,23 +5630,23 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5405,74 +5654,80 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-70300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-49400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>24500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>96300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-537100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-53500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>705400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>35800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>517900</v>
+      </c>
+      <c r="E8" s="3">
         <v>498400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>483200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>481500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>476200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>455300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1644900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>423600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>408600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>381100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1240300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>538000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>491600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>436200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>441900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>456000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>469600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>479200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>214400</v>
+      </c>
+      <c r="E9" s="3">
         <v>207000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>198800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>188900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>177600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>782500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>495200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>493000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>521000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>405200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>248100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>214000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>168900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>177400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>181200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>173900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>172600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>303500</v>
+      </c>
+      <c r="E10" s="3">
         <v>291400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>284400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>280600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>287300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>277700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>862400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-71600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-84400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-139900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>835100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>289900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>277600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>267300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>264500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>274800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>295700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>306600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>63100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>171600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>88700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>18400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>102700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>77000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>76200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>67200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>8900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>37300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>53200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>9100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E15" s="3">
         <v>177700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>178100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>177200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>171500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>157500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>553900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>142000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>139700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>125100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>435200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>171900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>165300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>132000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>130800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>132200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>143300</v>
       </c>
       <c r="T15" s="3">
         <v>143300</v>
       </c>
       <c r="U15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="V15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>421100</v>
+      </c>
+      <c r="E17" s="3">
         <v>409200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>422500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>403500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>448100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>531500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1373900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>361600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>371700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>242200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>840600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>519200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>459700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>335600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>317900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>390000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>356200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>388600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>96800</v>
+      </c>
+      <c r="E18" s="3">
         <v>89200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>60700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>78000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>28100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-76200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>271000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>62000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>138900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>399700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>124000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>66000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>113400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>90600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E20" s="3">
         <v>22100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>177000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>165000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>96100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>45200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>14700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>764300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>96400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>48000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>21800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>290600</v>
+      </c>
+      <c r="E21" s="3">
         <v>289000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>240200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>271400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>376600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>82500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1133200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>241300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>311500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>373400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1053900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>192200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>211900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>243700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1019100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>294600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>304700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>255700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E22" s="3">
         <v>37600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>35900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>46800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>218300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>53700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>217600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>49300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>63500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>73000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>75100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>68200</v>
+      </c>
+      <c r="E23" s="3">
         <v>73700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>58300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>166400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-121900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>217700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>78200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>128400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-40900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>62400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>833600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>98900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>88400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>37300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-800</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-9400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-29900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-5300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>68900</v>
+      </c>
+      <c r="E26" s="3">
         <v>72900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>59000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>167200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-121900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>227100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>78100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>158300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-34700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>836500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>103800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>93000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>42700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E27" s="3">
         <v>69300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>53800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>164200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-126300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>143700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>56500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>159400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-46200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>61000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>830200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>98900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>89500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>39800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,43 +1936,46 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>111800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>269700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>267500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-32000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-5300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>135400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1922,11 +1983,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1934,11 +1995,14 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-177000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-165000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-96100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-45200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-14700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-764300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-96400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-48000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-21800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E33" s="3">
         <v>69600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>54400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>276000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>143300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>411100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-63800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>44000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-46200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>830200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>98900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>89500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>39800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E35" s="3">
         <v>69600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>54400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>276000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>143300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>411100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-63800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>44000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-46200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>830200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>98900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>89500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>39800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E41" s="3">
         <v>89100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>158300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>201100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>197100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>731000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>783500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>125000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>120100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>78900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>91400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>86000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E43" s="3">
         <v>54100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>48700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>44700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>38900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>42300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>63200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>73400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>59400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>53800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>48600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>48200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>48700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>446400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>51500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2619,26 +2715,29 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>108100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>423100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>692700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>436200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,185 +2857,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>816100</v>
+      </c>
+      <c r="E47" s="3">
         <v>812900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>865400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>848300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>867800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>1192400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>652800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>724100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>773000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>761500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1119800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>750800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1011100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1006100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2124500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2200500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2206900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2464600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13107000</v>
+      </c>
+      <c r="E48" s="3">
         <v>13071600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12901400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12295200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>11819300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11347400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11312100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11225100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12980700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12753700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11205500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11708100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11406300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10792900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10209500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10235700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9962000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10859200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>470900</v>
+      </c>
+      <c r="E49" s="3">
         <v>497100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>519800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>520300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>511600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>495900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>519900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>501600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>537600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>550300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>331700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>303700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>318000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>275600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>305100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>305800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>294100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>395300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E52" s="3">
         <v>85900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>90600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>158700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>375900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1442500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2693500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2315600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>484400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>378400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>544800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>432900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>186500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>29100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>30500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15318200</v>
+      </c>
+      <c r="E54" s="3">
         <v>15287300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15257500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14743500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14332400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15193900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15920100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15751800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16316400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16072700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>14032900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14010200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13713100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12899500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12718600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13084000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13451400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14067600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,170 +3403,177 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E57" s="3">
         <v>215100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>227600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>252100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>217900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>241800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>763400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>834500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>847100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>856000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>456200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>431500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>371200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>352600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>391600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>410800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>398900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>391900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>3800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>142600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2600</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>423600</v>
+      </c>
+      <c r="E59" s="3">
         <v>403000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>443900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>373000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>358300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>328200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>179900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>175000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>177000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>156800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>154900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>152800</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>8</v>
@@ -3450,8 +3587,11 @@
       <c r="U59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,126 +3649,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6451200</v>
+      </c>
+      <c r="E61" s="3">
         <v>6331800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6164900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5529700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5028200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5751500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6155400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6378000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6724600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6382900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6347500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6599400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6289100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5761200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5564300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6797400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7401300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7962900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E62" s="3">
         <v>14300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>328200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>415700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>93000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>32600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>36400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9013000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8879000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8742000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8073100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7447500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8429400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9131700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8911800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9217800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8836200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7947800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8077100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7658700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7062600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6774100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8012800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8307900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8861300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4306800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4212900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4120800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3987500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6305200</v>
+      </c>
+      <c r="E76" s="3">
         <v>6408200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6515500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6670400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6884900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6764500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6788300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6840100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7098700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7236500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6085100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5933100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6054400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5836900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5944400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5071200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5143500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5206300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E81" s="3">
         <v>69600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>54400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>276000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>143300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>411100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-63800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>44000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-46200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>830200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>98900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>89500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>39800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>180500</v>
+      </c>
+      <c r="E83" s="3">
         <v>177700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>178100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>177200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>171500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>157500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>697100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>173600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>178500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>189300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>660000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>171900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>165300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>132000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>130800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>132200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>143300</v>
       </c>
       <c r="T83" s="3">
         <v>143300</v>
       </c>
       <c r="U83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="V83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>255500</v>
+      </c>
+      <c r="E89" s="3">
         <v>194200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>223900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>211700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>236900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>122700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>758400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>219900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>224800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>95000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>846100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>248000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>222000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>158600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>215800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>193200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>243500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>196200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-134100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-180000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-148700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-266900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-14900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-791600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-280900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-626900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-151500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-183600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-110700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-292300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-22100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-215200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-246000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-672600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-508600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>944600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>767700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-231200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-384300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-151000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-352500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-928700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-160300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1011700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>325800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>481000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,16 +5550,17 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-161800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-163400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-162000</v>
       </c>
       <c r="F96" s="3">
         <v>-162000</v>
@@ -5335,49 +5569,52 @@
         <v>-162000</v>
       </c>
       <c r="H96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-164100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-787100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-199500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-199600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-188500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-720100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-177300</v>
       </c>
       <c r="P96" s="3">
         <v>-177300</v>
       </c>
       <c r="Q96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="R96" s="3">
         <v>-174300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-174100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-174300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-174100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,75 +5796,81 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>399400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>321400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-924100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>246500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-525800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>106200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>761400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>647300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>103600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>716100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-532400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-720500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-171200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -5633,23 +5882,23 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5657,77 +5906,83 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-70300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-49400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>24500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>96300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-537100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>705400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>35800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>517900</v>
+        <v>520400</v>
       </c>
       <c r="E8" s="3">
+        <v>1016300</v>
+      </c>
+      <c r="F8" s="3">
         <v>498400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>483200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>481500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>476200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>455300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1644900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>423600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>408600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>381100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1240300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>538000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>491600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>436200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>441900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>456000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>469600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>479200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>214400</v>
+        <v>219500</v>
       </c>
       <c r="E9" s="3">
+        <v>421400</v>
+      </c>
+      <c r="F9" s="3">
         <v>207000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>198800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>200900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>177600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>782500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>495200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>493000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>521000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>405200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>248100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>214000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>168900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>177400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>181200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>173900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>172600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>303500</v>
+        <v>300900</v>
       </c>
       <c r="E10" s="3">
+        <v>594900</v>
+      </c>
+      <c r="F10" s="3">
         <v>291400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>284400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>280600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>287300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>277700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>862400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-71600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-84400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-139900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>835100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>289900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>277600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>267300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>264500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>274800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>295700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>306600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1105,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>700</v>
+        <v>4100</v>
       </c>
       <c r="E14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>63100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>171600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>88700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>102700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>77000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>76200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>67200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>8900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>37300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>53200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>9100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>180500</v>
+        <v>173200</v>
       </c>
       <c r="E15" s="3">
+        <v>358200</v>
+      </c>
+      <c r="F15" s="3">
         <v>177700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>178100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>177200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>171500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>157500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>553900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>142000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>139700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>125100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>435200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>171900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>165300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>132000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>130800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>132200</v>
-      </c>
-      <c r="T15" s="3">
-        <v>143300</v>
       </c>
       <c r="U15" s="3">
         <v>143300</v>
       </c>
       <c r="V15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="W15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>421100</v>
+        <v>422100</v>
       </c>
       <c r="E17" s="3">
+        <v>830300</v>
+      </c>
+      <c r="F17" s="3">
         <v>409200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>422500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>403500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>448100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>531500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1373900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>361600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>371700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>242200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>840600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>519200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>459700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>335600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>317900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>390000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>356200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>388600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>96800</v>
+        <v>98300</v>
       </c>
       <c r="E18" s="3">
+        <v>186000</v>
+      </c>
+      <c r="F18" s="3">
         <v>89200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>60700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>78000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>28100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-76200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>271000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>62000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>138900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>399700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>18800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>31900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>124000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>66000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>113400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>90600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>13200</v>
+        <v>301500</v>
       </c>
       <c r="E20" s="3">
+        <v>35400</v>
+      </c>
+      <c r="F20" s="3">
         <v>22100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>177000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>165000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>96100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>45200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>14700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>11100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>764300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>96400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>48000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>21800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>290600</v>
+        <v>573000</v>
       </c>
       <c r="E21" s="3">
+        <v>579600</v>
+      </c>
+      <c r="F21" s="3">
         <v>289000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>240200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>271400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>376600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>82500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1133200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>241300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>311500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>373400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1053900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>192200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>211900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>243700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1019100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>294600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>304700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>255700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>41900</v>
+        <v>44100</v>
       </c>
       <c r="E22" s="3">
+        <v>79500</v>
+      </c>
+      <c r="F22" s="3">
         <v>37600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>36600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>38700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>46800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>218300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>217600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>63500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>73000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>75100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>68200</v>
+        <v>355800</v>
       </c>
       <c r="E23" s="3">
+        <v>141900</v>
+      </c>
+      <c r="F23" s="3">
         <v>73700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>58300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>166400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-121900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>217700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>78200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>128400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-40900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>62400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>833600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>98900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>88400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>37300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-700</v>
+        <v>-3800</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-800</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-9400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-29900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-3500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-5300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>68900</v>
+        <v>359600</v>
       </c>
       <c r="E26" s="3">
+        <v>141900</v>
+      </c>
+      <c r="F26" s="3">
         <v>72900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>59000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>167200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-121900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>227100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>78100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>158300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-34700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>836500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>103800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>93000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>42700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>65100</v>
+        <v>354700</v>
       </c>
       <c r="E27" s="3">
+        <v>134700</v>
+      </c>
+      <c r="F27" s="3">
         <v>69300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>53800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>164200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-126300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>143700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>56500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>159400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-46200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>61000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>830200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>98900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>89500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>39800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,46 +1997,49 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>3000</v>
+        <v>-1300</v>
       </c>
       <c r="E29" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F29" s="3">
         <v>300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>3600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>111800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>269700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>267500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-32000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-5300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>135400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1986,11 +2047,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -1998,11 +2059,14 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13200</v>
+        <v>-301500</v>
       </c>
       <c r="E32" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-22100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-177000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-165000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-96100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-45200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-11100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-764300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-96400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-48000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-21800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>68100</v>
+        <v>353400</v>
       </c>
       <c r="E33" s="3">
+        <v>138000</v>
+      </c>
+      <c r="F33" s="3">
         <v>69600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>54400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>276000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>143300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>411100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-63800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>51100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>277700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>44000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-46200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>830200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>98900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>89500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>39800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>68100</v>
+        <v>353400</v>
       </c>
       <c r="E35" s="3">
+        <v>138000</v>
+      </c>
+      <c r="F35" s="3">
         <v>69600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>54400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>276000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>143300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>411100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-63800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>51100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>277700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>44000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-46200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>830200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>98900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>89500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>39800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2574,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>112500</v>
+      </c>
+      <c r="E41" s="3">
         <v>73000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>158300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>201100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>96900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>34000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>197100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>731000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>783500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>125000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>130500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>120100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>78900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>91400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>86000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2702,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E43" s="3">
         <v>47300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>54100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>48700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>44700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>41800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>38900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>42300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>63200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>73400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>59400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>53800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>48600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>48200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>48700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>446400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>51500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2718,26 +2814,29 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>108100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>423100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>692700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>436200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2897,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,194 +2962,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="E47" s="3">
         <v>816100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>812900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>865400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>848300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>867800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1192400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>652800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>724100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>773000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>761500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1119800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>750800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1011100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1006100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2124500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2200500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2206900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2464600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13110200</v>
+      </c>
+      <c r="E48" s="3">
         <v>13107000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13071600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12901400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12295200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11819300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11347400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11312100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11225100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12980700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12753700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11205500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11708100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11406300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10792900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10209500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10235700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>9962000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>10859200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>444200</v>
+      </c>
+      <c r="E49" s="3">
         <v>470900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>497100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>519800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>520300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>511600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>495900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>519900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>501600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>537600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>550300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>331700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>303700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>318000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>275600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>305100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>305800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>294100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>395300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E52" s="3">
         <v>121500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>85900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>90600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>158700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>375900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1442500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2693500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2315600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>484400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>378400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>544800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>432900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>186500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>29100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>30500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>31900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15662000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15318200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15287300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15257500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>14743500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14332400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15193900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15920100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15751800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16316400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16072700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>14032900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14010200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13713100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12899500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12718600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13084000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13451400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14067600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,179 +3534,186 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>264500</v>
+      </c>
+      <c r="E57" s="3">
         <v>209200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>215100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>227600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>252100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>217900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>241800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>763400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>834500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>847100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>856000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>456200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>431500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>371200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>352600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>391600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>410800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>398900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>391900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>142600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2600</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>397600</v>
+      </c>
+      <c r="E59" s="3">
         <v>423600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>403000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>443900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>373000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>358300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>328200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>179900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>175000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>177000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>156800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>154900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>152800</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>8</v>
@@ -3590,8 +3727,11 @@
       <c r="V59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,132 +3792,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6589700</v>
+      </c>
+      <c r="E61" s="3">
         <v>6451200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6331800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6164900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5529700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5028200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5751500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6155400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6378000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6724600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6382900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6347500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6599400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6289100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5761200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5564300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6797400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7401300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7962900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E62" s="3">
         <v>15900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>328200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>415700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>93000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>32600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>31700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9195000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9013000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8879000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8742000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8073100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7447500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8429400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9131700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8911800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9217800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8836200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7947800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8077100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7658700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7062600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6774100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8012800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8307900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8861300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4114800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4306800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4212900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4120800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3987500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6467000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6305200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6408200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6515500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6670400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6884900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6764500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6788300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6840100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7098700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7236500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6085100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5933100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6054400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5836900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5944400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5071200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5143500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5206300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>68100</v>
+        <v>353400</v>
       </c>
       <c r="E81" s="3">
+        <v>138000</v>
+      </c>
+      <c r="F81" s="3">
         <v>69600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>54400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>276000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>143300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>411100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-63800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>51100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>277700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>44000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-46200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>830200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>98900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>89500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>39800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>180500</v>
+        <v>173200</v>
       </c>
       <c r="E83" s="3">
+        <v>358200</v>
+      </c>
+      <c r="F83" s="3">
         <v>177700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>178100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>177200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>171500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>157500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>697100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>173600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>178500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>189300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>660000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>171900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>165300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>132000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>130800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>132200</v>
-      </c>
-      <c r="T83" s="3">
-        <v>143300</v>
       </c>
       <c r="U83" s="3">
         <v>143300</v>
       </c>
       <c r="V83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="W83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>255500</v>
+        <v>243600</v>
       </c>
       <c r="E89" s="3">
+        <v>449700</v>
+      </c>
+      <c r="F89" s="3">
         <v>194200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>223900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>211700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>236900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>122700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>758400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>219900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>224800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>95000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>846100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>248000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>222000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>158600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>215800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>193200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>243500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>196200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-159200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-134100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-180000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-148700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-266900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-14900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-791600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-280900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-626900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-151500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-183600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-110700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-292300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-22100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-215200</v>
+        <v>-117000</v>
       </c>
       <c r="E94" s="3">
+        <v>-461100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-246000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-672600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-508600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>944600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>767700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-231200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-384300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-151000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-352500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-928700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-160300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1011700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>325800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>481000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,19 +5784,20 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-161800</v>
+        <v>-161700</v>
       </c>
       <c r="E96" s="3">
+        <v>-325300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-163400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-162000</v>
       </c>
       <c r="G96" s="3">
         <v>-162000</v>
@@ -5572,49 +5806,52 @@
         <v>-162000</v>
       </c>
       <c r="I96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-164100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-787100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-199500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-199600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-188500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-720100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-177300</v>
       </c>
       <c r="Q96" s="3">
         <v>-177300</v>
       </c>
       <c r="R96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="S96" s="3">
         <v>-174300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-174100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-174300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-174100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-53600</v>
+        <v>-93400</v>
       </c>
       <c r="E100" s="3">
+        <v>-72100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>399400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>321400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-924100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>246500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-525800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>106200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>761400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>647300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>103600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>716100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>8500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-532400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-720500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-171200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5872,8 +6121,8 @@
       <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -5885,23 +6134,23 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5909,80 +6158,86 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13300</v>
+        <v>33200</v>
       </c>
       <c r="E102" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-70300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-49400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>24500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>96300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-537100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-53500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>705400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>35800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>524500</v>
+      </c>
+      <c r="E8" s="3">
         <v>520400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1016300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>498400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>483200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>481500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>476200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>455300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1644900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>423600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>408600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>381100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1240300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>538000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>491600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>436200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>441900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>456000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>469600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>479200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E9" s="3">
         <v>219500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>421400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>207000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>198800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>200900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>177600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>782500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>495200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>493000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>521000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>405200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>248100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>214000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>168900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>177400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>181200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>173900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>172600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>307200</v>
+      </c>
+      <c r="E10" s="3">
         <v>300900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>594900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>291400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>284400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>280600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>287300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>277700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>862400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-71600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-84400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-139900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>835100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>289900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>277600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>267300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>264500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>274800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>295700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>306600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E14" s="3">
         <v>4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>63100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>171600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>88700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>102700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>77000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>76200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>67200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>37300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>53200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>9100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E15" s="3">
         <v>173200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>358200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>177700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>178100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>177200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>171500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>157500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>553900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>142000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>139700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>125100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>435200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>171900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>165300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>132000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>130800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>132200</v>
-      </c>
-      <c r="U15" s="3">
-        <v>143300</v>
       </c>
       <c r="V15" s="3">
         <v>143300</v>
       </c>
       <c r="W15" s="3">
+        <v>143300</v>
+      </c>
+      <c r="X15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>152600</v>
+      </c>
+      <c r="E17" s="3">
         <v>422100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>830300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>409200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>422500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>403500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>448100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>531500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1373900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>361600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>371700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>242200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>840600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>519200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>459700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>335600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>317900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>390000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>356200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>388600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>371900</v>
+      </c>
+      <c r="E18" s="3">
         <v>98300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>186000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>89200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>60700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>78000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-76200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>271000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>62000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>138900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>399700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>18800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>31900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>124000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>66000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>113400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-313000</v>
+      </c>
+      <c r="E20" s="3">
         <v>301500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>35400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>22100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>177000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>165000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>96100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>45200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>11100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>764300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>96400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>48000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>21800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E21" s="3">
         <v>573000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>579600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>289000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>240200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>271400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>376600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>82500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1133200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>241300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>311500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>373400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1053900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>192200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>211900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>243700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1019100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>294600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>304700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>255700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49400</v>
+      </c>
+      <c r="E22" s="3">
         <v>44100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>79500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>36600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>46800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>218300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>217600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>54700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>63500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>73000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>75100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>355800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>141900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>73700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>58300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>166400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-121900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>217700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>78200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>128400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-40900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>62400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>833600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>98900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>88400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>37300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-800</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-9400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-29900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-3500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-4900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-5300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E26" s="3">
         <v>359600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>141900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>72900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>59000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>167200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-121900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>227100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>78100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>158300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-34700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>836500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>103800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>93000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>42700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E27" s="3">
         <v>354700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>134700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>69300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>53800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>164200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-126300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>143700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>56500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>142200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>159400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-14000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>61000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>830200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>98900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>89500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>39800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,49 +2057,52 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>900</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>3300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>3600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>111800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>269700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>267500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-32000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-5300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>135400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2050,11 +2110,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2062,11 +2122,14 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>313000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-301500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-35400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-22100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-177000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-165000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-96100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-45200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-11100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-764300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-96400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-48000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-21800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
         <v>353400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>138000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>69600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>54400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>276000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>143300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>411100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-63800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>51100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>277700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>44000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-14000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>830200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>98900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>89500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>39800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
         <v>353400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>138000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>69600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>54400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>276000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>143300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>411100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-63800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>51100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>277700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>44000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-14000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>830200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>98900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>89500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>39800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E41" s="3">
         <v>112500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>158300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>201100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>96900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>34000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>44200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>197100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>731000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>783500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>125000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>120100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>78900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>91400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>86000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E43" s="3">
         <v>54000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>54100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>48700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>44700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>41800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>38900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>42300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>63200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>73400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>85000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>59400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>53800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>48600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>48200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>48700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>446400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>51500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2817,26 +2912,29 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>108100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>423100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>692700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>436200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2900,8 +2998,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2965,203 +3066,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1081500</v>
+      </c>
+      <c r="E47" s="3">
         <v>1082900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>816100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>812900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>865400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>848300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>867800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1192400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>652800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>724100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>773000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>761500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1119800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>750800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1011100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1006100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2124500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2200500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2206900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2464600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13260800</v>
+      </c>
+      <c r="E48" s="3">
         <v>13110200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>13107000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>13071600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12901400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12295200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11819300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>11347400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11312100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11225100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12980700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12753700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11205500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11708100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11406300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10792900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10209500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10235700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>9962000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10859200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>418100</v>
+      </c>
+      <c r="E49" s="3">
         <v>444200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>470900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>497100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>519800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>520300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>511600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>495900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>519900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>501600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>537600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>550300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>331700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>303700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>318000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>275600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>305100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>305800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>294100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>395300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>104700</v>
+      </c>
+      <c r="E52" s="3">
         <v>106000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>121500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>85900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>90600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>158700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>375900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1442500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2693500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2315600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>484400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>378400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>544800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>432900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>186500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>37400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>29100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>29900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>30500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>31900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15771200</v>
+      </c>
+      <c r="E54" s="3">
         <v>15662000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15318200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15287300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15257500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>14743500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14332400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15193900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15920100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15751800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16316400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16072700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>14032900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14010200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13713100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12899500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12718600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13084000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13451400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14067600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,188 +3664,195 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>265600</v>
+      </c>
+      <c r="E57" s="3">
         <v>264500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>209200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>215100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>227600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>252100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>217900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>241800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>763400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>834500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>847100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>856000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>456200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>431500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>371200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>352600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>391600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>410800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>398900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>391900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>90100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>142600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2600</v>
       </c>
-      <c r="W58" s="3" t="s">
+      <c r="X58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>446400</v>
+      </c>
+      <c r="E59" s="3">
         <v>397600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>423600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>403000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>443900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>373000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>358300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>328200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>179900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>175000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>177000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>156800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>156600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>156300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>154900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>152800</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>8</v>
@@ -3730,8 +3866,11 @@
       <c r="W59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3795,138 +3934,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6407500</v>
+      </c>
+      <c r="E61" s="3">
         <v>6589700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6451200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6331800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6164900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5529700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5028200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5751500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6155400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6378000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6724600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6382900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6347500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6599400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6289100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5761200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5564300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6797400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7401300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7962900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E62" s="3">
         <v>12800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>328200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>415700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>93000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>32600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>31700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>36400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>35100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9116500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9195000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9013000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8879000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8742000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8073100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7447500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8429400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9131700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8911800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9217800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8836200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7947800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8077100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7658700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7062600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6774100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8012800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8307900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>8861300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4269700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4114800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4306800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4212900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4120800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3987500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6654700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6467000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6305200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6408200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6515500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6670400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6884900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6764500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6788300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6840100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7098700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7236500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6085100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5933100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6054400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5836900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5944400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5071200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5143500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5206300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
         <v>353400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>138000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>69600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>54400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>276000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>143300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>411100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-63800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>51100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>277700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>44000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-46200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-14000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>830200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>98900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>89500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>39800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E83" s="3">
         <v>173200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>358200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>177700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>178100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>177200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>171500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>157500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>697100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>173600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>178500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>189300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>660000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>171900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>165300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>132000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>130800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>132200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>143300</v>
       </c>
       <c r="V83" s="3">
         <v>143300</v>
       </c>
       <c r="W83" s="3">
+        <v>143300</v>
+      </c>
+      <c r="X83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>207000</v>
+      </c>
+      <c r="E89" s="3">
         <v>243600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>449700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>194200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>223900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>211700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>236900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>122700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>758400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>219900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>224800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>95000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>846100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>248000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>222000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>158600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>215800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>193200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>243500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>196200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-18900</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-159200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-134100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-180000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-148700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-266900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-14900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-791600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-39500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-280900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-626900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-151500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-183600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-106300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-110700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-292300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-22100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-298200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-117000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-461100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-246000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-672600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-508600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>944600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>767700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-231200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-384300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-151000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-352500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-928700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-160300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1011700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>325800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>481000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>10700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,22 +6017,23 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-161100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-161700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-325300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-163400</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-162000</v>
       </c>
       <c r="H96" s="3">
         <v>-162000</v>
@@ -5809,49 +6042,52 @@
         <v>-162000</v>
       </c>
       <c r="J96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-164100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-787100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-199500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-199600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-188500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-720100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-182100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-177300</v>
       </c>
       <c r="R96" s="3">
         <v>-177300</v>
       </c>
       <c r="S96" s="3">
+        <v>-177300</v>
+      </c>
+      <c r="T96" s="3">
         <v>-174300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-174100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-174300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-174100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,84 +6287,90 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-93400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-72100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>399400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>321400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-924100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>246500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-525800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>106200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>761400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>647300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>103600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>716100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>8500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-532400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-720500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-171200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>8</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -6137,23 +6385,23 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -6161,83 +6409,89 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42300</v>
+      </c>
+      <c r="E102" s="3">
         <v>33200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-83600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-70300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-49400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>24500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>96300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-537100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-53500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>705400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>35800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-93900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-18900</v>
+        <v>-263800</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-250400</v>
       </c>
       <c r="F91" s="3">
-        <v>-159200</v>
+        <v>-213300</v>
       </c>
       <c r="G91" s="3">
-        <v>-134100</v>
+        <v>-312400</v>
       </c>
       <c r="H91" s="3">
-        <v>-180000</v>
+        <v>-684600</v>
       </c>
       <c r="I91" s="3">
-        <v>-148700</v>
+        <v>-629000</v>
       </c>
       <c r="J91" s="3">
-        <v>-266900</v>
+        <v>-629700</v>
       </c>
       <c r="K91" s="3">
         <v>-14900</v>

--- a/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PEAK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PEAK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>545400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>525700</v>
+      </c>
+      <c r="F8" s="3">
         <v>524500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>520400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1016300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>498400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>483200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>481500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>476200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>455300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1644900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>423600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>408600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>381100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1240300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>538000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>491600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>436200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>441900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>456000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>469600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>479200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>443300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>220700</v>
+      </c>
+      <c r="F9" s="3">
         <v>217300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>219500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>421400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>207000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>198800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>200900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>188900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>177600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>782500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>495200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>493000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>521000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>405200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>248100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>214000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>168900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>177400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>181200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>173900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>172600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>198700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>324100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>305000</v>
+      </c>
+      <c r="F10" s="3">
         <v>307200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>300900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>594900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>291400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>284400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>280600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>287300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>277700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>862400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-71600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-84400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-139900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>835100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>289900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>277600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>267300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>264500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>274800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>295700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>306600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>244600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1161,162 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>500</v>
+      </c>
+      <c r="F14" s="3">
         <v>39300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>19100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>2200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>63100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>171600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>88700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>18400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>33300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>102700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>77000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>76200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>67200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>8900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>37300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>53200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>14100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>9100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>93600</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E15" s="3">
         <v>179200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>179200</v>
+      </c>
+      <c r="G15" s="3">
         <v>173200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>358200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>177700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>178100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>177200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>171500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>157500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>553900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>142000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>139700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>125100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>435200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>171900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>165300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>132000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>130800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>132200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>143300</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>143300</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>448000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>427400</v>
+      </c>
+      <c r="F17" s="3">
         <v>152600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>422100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>830300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>409200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>422500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>403500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>448100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>531500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1373900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>361600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>371700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>242200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>840600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>519200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>459700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>335600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>317900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>390000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>356200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>388600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>455000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>371900</v>
+        <v>97400</v>
       </c>
       <c r="E18" s="3">
         <v>98300</v>
       </c>
       <c r="F18" s="3">
+        <v>371900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>98300</v>
+      </c>
+      <c r="H18" s="3">
         <v>186000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>89200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>60700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>78000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>28100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-76200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>271000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>62000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>36900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>138900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>399700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>18800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>31900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>100600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>124000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>66000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>113400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>90600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-11700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1514,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>82700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-313000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>301500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>35400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>22100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>16300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>177000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>165000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>5700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>96100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>45200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>14700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>11100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>764300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>96400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>48000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>21800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>32600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>360200</v>
+      </c>
+      <c r="F21" s="3">
         <v>238000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>573000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>579600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>289000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>240200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>271400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>376600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>82500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1133200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>241300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>311500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>373400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1053900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>192200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>211900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>243700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1019100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>294600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>304700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>255700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>157800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F22" s="3">
         <v>49400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>44100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>79500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>37600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>36600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>35900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>38700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>46800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>218300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>53700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>54800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>55700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>217600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>61200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>56900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>49300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>54700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>63500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>73000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>75100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>71900</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>133000</v>
+      </c>
+      <c r="F23" s="3">
         <v>9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>355800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>141900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>73700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>25500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>58300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>166400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-121900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>217700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>14000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>78200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>128400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>176300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-40900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-10300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>62400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>833600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>98900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>88400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>37300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-51000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-9400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-29900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-6300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-3500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-4900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-4700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-5300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>132700</v>
+      </c>
+      <c r="F26" s="3">
         <v>10100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>359600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>141900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>72900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>27400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>59000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>167200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-121900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>227100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>78100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>158300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>181800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-34700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-8500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>65900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>836500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>103800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>93000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>42700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-47200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F27" s="3">
         <v>5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>354700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>134700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>69300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>24900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>53800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>164200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-126300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>143700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-31700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>56500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>142200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>159400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-46200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-14000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>61000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>830200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>98900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>89500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>39800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-42300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,76 +2176,88 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>-1300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>3300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>300</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>3600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>111800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>269700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>267500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-32000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-5300</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>135400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-115400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-17000</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="F32" s="3">
         <v>313000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-301500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-35400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-22100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-16300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-177000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-165000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-5700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-96100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-45200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>5700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-14700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-11100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-764300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-96400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-48000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-21800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-32600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F33" s="3">
         <v>6400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>353400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>138000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>69600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>54400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>276000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>143300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>411100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-63800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>51100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>277700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>44000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-46200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-14000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>61000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>830200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>98900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>89500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>39800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F35" s="3">
         <v>6400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>353400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>138000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>69600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>54400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>276000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>143300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>411100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-63800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>51100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>277700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>44000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-46200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-14000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>61000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>830200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>98900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>89500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>39800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2833,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>59200</v>
+      </c>
+      <c r="F41" s="3">
         <v>72000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>112500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>73000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>89100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>158300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>201100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>96900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>34000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>44200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>197100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>731000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>783500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>144200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>125000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>130500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>120100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>110800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>78900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>91400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>86000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>55300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2977,88 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>57700</v>
+      </c>
+      <c r="F43" s="3">
         <v>53400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>54000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>47300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>54100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>48700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>44700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>41800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>38900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>42300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>63200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>73400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>85000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>59400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>57000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>53800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>48600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>48200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>48700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>446400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>51500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2915,26 +3107,32 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>108100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>423100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>692700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>436200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>417000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3199,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,212 +3273,236 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>946000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>957800</v>
+      </c>
+      <c r="F47" s="3">
         <v>1081500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>1082900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>816100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>812900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>865400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>848300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>867800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1192400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>652800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>724100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>773000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>761500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1119800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>750800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1011100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1006100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2124500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>2200500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2206900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>2464600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>2681100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13331300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>13322900</v>
+      </c>
+      <c r="F48" s="3">
         <v>13260800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>13110200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>13107000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>13071600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>12901400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>12295200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11819300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>11347400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11312100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>11225100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>12980700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>12753700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>11205500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11708100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>11406300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>10792900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>10209500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>10235700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>9962000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>10859200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>10731900</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>364500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>392000</v>
+      </c>
+      <c r="F49" s="3">
         <v>418100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>444200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>470900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>497100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>519800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>520300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>511600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>495900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>519900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>501600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>537600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>550300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>331700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>303700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>318000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>275600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>305100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>305800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>294100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>395300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>410100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F52" s="3">
         <v>104700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>106000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>121500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>85900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>90600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>158700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>375900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1442500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2693500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2315600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>484400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>378400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>544800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>432900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>186500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>37400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>29100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>29900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>30500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>31900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>26900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15603500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>15602300</v>
+      </c>
+      <c r="F54" s="3">
         <v>15771200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>15662000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15318200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>15287300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15257500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>14743500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>14332400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>15193900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15920100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15751800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>16316400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>16072700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14032900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>14010200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13713100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12899500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12718600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>13084000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>13451400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>14067600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>14088500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,200 +3925,214 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>224100</v>
+      </c>
+      <c r="F57" s="3">
         <v>265600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>264500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>209200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>215100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>227600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>252100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>217900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>241800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>763400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>834500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>847100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>856000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>456200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>431500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>371200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>352600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>391600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>410800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>398900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>391900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>401700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>88800</v>
+      </c>
+      <c r="F58" s="3">
         <v>90100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>10200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>11600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>142600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2600</v>
       </c>
-      <c r="X58" s="3" t="s">
+      <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>408600</v>
+      </c>
+      <c r="F59" s="3">
         <v>446400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>397600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>423600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>403000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>443900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>373000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>358300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>328200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>179900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>175000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>177000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>156800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>156600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>156300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>154900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>152800</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>8</v>
@@ -3869,8 +4143,14 @@
       <c r="X59" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,144 +4217,162 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6481200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>6365100</v>
+      </c>
+      <c r="F61" s="3">
         <v>6407500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>6589700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6451200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>6331800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>6164900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5529700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5028200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5751500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6155400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6378000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6724600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>6382900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6347500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6599400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6289100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5761200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5564300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>6797400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>7401300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>7962900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>7880500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>4100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>12800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>15900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>15100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>18900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>65300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>328200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>415700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>93000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>32600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>31700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>36400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>35100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>30100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>3100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>10400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>8600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9068500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>8992600</v>
+      </c>
+      <c r="F66" s="3">
         <v>9116500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9195000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9013000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>8879000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8742000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8073100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7447500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>8429400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9131700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8911800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9217800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8836200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7947800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8077100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7658700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7062600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6774100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8012800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>8307900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>8861300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>8787500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4428400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4316000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4269700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4114800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4306800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4212900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-4120800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3987500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3880300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3994600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3976200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3923200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3660200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3512100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3601200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3461300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-3233300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-3042400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-2927200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3584400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3509600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3425300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3370500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6535100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6609700</v>
+      </c>
+      <c r="F76" s="3">
         <v>6654700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6467000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6305200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6408200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6515500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>6670400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6884900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6764500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6788300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6840100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>7098700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7236500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6085100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5933100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>6054400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5836900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5944400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5071200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5143500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5206300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5301000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>117700</v>
+      </c>
+      <c r="F81" s="3">
         <v>6400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>353400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>138000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>69600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>54400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>276000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>143300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>411100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-63800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>51100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>277700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>44000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-46200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-14000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>61000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>830200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>98900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>89500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>39800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-59300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>197600</v>
+      </c>
+      <c r="E83" s="3">
         <v>179200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>179200</v>
+      </c>
+      <c r="G83" s="3">
         <v>173200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>358200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>177700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>178100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>177200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>171500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>157500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>697100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>173600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>178500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>189300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>660000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>171900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>165300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>132000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>130800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>132200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>143300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>143300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>136800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>297800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>173900</v>
+      </c>
+      <c r="F89" s="3">
         <v>207000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>243600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>449700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>194200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>223900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>211700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>236900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>122700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>758400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>219900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>224800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>95000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>846100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>248000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>222000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>158600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>215800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>193200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>243500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>196200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>209100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-194800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-215100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-263800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-250400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-213300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-312400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-684600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-629000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-629700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-14900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-791600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-39500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-280900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-20000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-626900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-151500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-183600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-106300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-110700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-292300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-1000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-22100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-237700</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-195000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>56300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-298200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-117000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-461100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-246000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-672600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-508600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>944600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>767700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1007700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-231200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-384300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-151000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1448800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-352500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-928700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-160300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1011700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>325800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>481000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>10700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-509600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,64 +6484,66 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-164000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-161100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-161700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-325300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-163400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-162000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-162000</v>
       </c>
       <c r="J96" s="3">
         <v>-162000</v>
       </c>
       <c r="K96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-162000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-164100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-787100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-199500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-199600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-188500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-720100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-182100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-177300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-177300</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-174300</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-174100</v>
       </c>
       <c r="V96" s="3">
         <v>-174300</v>
@@ -6084,10 +6552,16 @@
         <v>-174100</v>
       </c>
       <c r="X96" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>-174100</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-174200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6776,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-239900</v>
+      </c>
+      <c r="F100" s="3">
         <v>49000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-93400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-72100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-18500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>399400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>321400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1085200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-924100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>246500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-525800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>106200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>761400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>647300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>103600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>716100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>8500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1196400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-532400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-720500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-171200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>206500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6388,110 +6886,122 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V101" s="3">
         <v>-100</v>
       </c>
       <c r="W101" s="3">
+        <v>200</v>
+      </c>
+      <c r="X101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-42300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>33200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-83600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-70300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-49400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>24500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>96300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-33700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-537100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-53500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>705400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>44800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>9400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>31100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-13200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>4000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>35800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-93900</v>
       </c>
     </row>
